--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.454501121908038</v>
+        <v>2.454501121907924</v>
       </c>
       <c r="C2">
-        <v>0.659750096985249</v>
+        <v>0.6597500969851922</v>
       </c>
       <c r="D2">
-        <v>0.01464290267600532</v>
+        <v>0.0146429026761048</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.561926833881131</v>
+        <v>2.561926833881159</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>1.366392270078322</v>
       </c>
       <c r="I2">
-        <v>0.2747493925704774</v>
+        <v>0.2747493925704632</v>
       </c>
       <c r="J2">
         <v>0.706445121094049</v>
       </c>
       <c r="K2">
-        <v>0.6091503759065233</v>
+        <v>0.6091503759065162</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.113390284951777</v>
+        <v>2.113390284951834</v>
       </c>
       <c r="C3">
-        <v>0.5670231846304432</v>
+        <v>0.5670231846301022</v>
       </c>
       <c r="D3">
-        <v>0.01497418430138264</v>
+        <v>0.01497418430115793</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.27926222901489</v>
+        <v>2.279262229014876</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.238944949960327</v>
+        <v>1.238944949960342</v>
       </c>
       <c r="I3">
-        <v>0.2365436906758802</v>
+        <v>0.2365436906758518</v>
       </c>
       <c r="J3">
-        <v>0.6079202951153917</v>
+        <v>0.6079202951153988</v>
       </c>
       <c r="K3">
-        <v>0.5226957332855164</v>
+        <v>0.5226957332855235</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.907289103229175</v>
+        <v>1.907289103229061</v>
       </c>
       <c r="C4">
-        <v>0.5111031527421517</v>
+        <v>0.5111031527423506</v>
       </c>
       <c r="D4">
-        <v>0.0151674061212006</v>
+        <v>0.01516740612132406</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.111529154389984</v>
+        <v>2.111529154389999</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>1.163830693921767</v>
       </c>
       <c r="I4">
-        <v>0.213731939636439</v>
+        <v>0.2137319396364319</v>
       </c>
       <c r="J4">
-        <v>0.5484205532258457</v>
+        <v>0.5484205532258599</v>
       </c>
       <c r="K4">
         <v>0.4708001138668934</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.824009585000653</v>
+        <v>1.824009585000368</v>
       </c>
       <c r="C5">
-        <v>0.488529177653902</v>
+        <v>0.4885291776540726</v>
       </c>
       <c r="D5">
-        <v>0.01524373148364866</v>
+        <v>0.01524373148342395</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.133922584095515</v>
+        <v>1.133922584095544</v>
       </c>
       <c r="I5">
-        <v>0.2045755627103887</v>
+        <v>0.20457556271041</v>
       </c>
       <c r="J5">
-        <v>0.5243844534647124</v>
+        <v>0.5243844534646982</v>
       </c>
       <c r="K5">
-        <v>0.449905917949728</v>
+        <v>0.4499059179497351</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.810220251185655</v>
+        <v>1.810220251185683</v>
       </c>
       <c r="C6">
-        <v>0.4847925751030289</v>
+        <v>0.4847925751030857</v>
       </c>
       <c r="D6">
-        <v>0.01525626363641841</v>
+        <v>0.01525626363639709</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.033407034276081</v>
+        <v>2.033407034276067</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>1.128996326554187</v>
       </c>
       <c r="I6">
-        <v>0.2030629552811973</v>
+        <v>0.2030629552812115</v>
       </c>
       <c r="J6">
-        <v>0.5204049066116525</v>
+        <v>0.5204049066116738</v>
       </c>
       <c r="K6">
-        <v>0.4464505439290036</v>
+        <v>0.4464505439290178</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.906163263500986</v>
+        <v>1.906163263501014</v>
       </c>
       <c r="C7">
-        <v>0.5107978977688674</v>
+        <v>0.5107978977687253</v>
       </c>
       <c r="D7">
-        <v>0.01516844505605786</v>
+        <v>0.01516844505616888</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.163424612138016</v>
+        <v>1.163424612138002</v>
       </c>
       <c r="I7">
-        <v>0.21360791705645</v>
+        <v>0.2136079170564642</v>
       </c>
       <c r="J7">
-        <v>0.5480955911563257</v>
+        <v>0.548095591156347</v>
       </c>
       <c r="K7">
-        <v>0.4705173564728611</v>
+        <v>0.4705173564728469</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.33610866999652</v>
+        <v>2.336108669996804</v>
       </c>
       <c r="C8">
-        <v>0.6275410894782851</v>
+        <v>0.6275410894785409</v>
       </c>
       <c r="D8">
-        <v>0.01475933360584403</v>
+        <v>0.01475933360575521</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.463146354689826</v>
+        <v>2.463146354689812</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.321741439629847</v>
+        <v>1.321741439629875</v>
       </c>
       <c r="I8">
-        <v>0.2614272175923702</v>
+        <v>0.2614272175923773</v>
       </c>
       <c r="J8">
-        <v>0.6722421219229915</v>
+        <v>0.6722421219230128</v>
       </c>
       <c r="K8">
-        <v>0.5790656841465776</v>
+        <v>0.5790656841465704</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.212504772101909</v>
+        <v>3.212504772101852</v>
       </c>
       <c r="C9">
-        <v>0.8666368008177585</v>
+        <v>0.8666368008179575</v>
       </c>
       <c r="D9">
-        <v>0.01386920495528621</v>
+        <v>0.01386920495519117</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.209415682663519</v>
+        <v>3.20941568266349</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>1.661564271372512</v>
       </c>
       <c r="I9">
-        <v>0.3615141322353352</v>
+        <v>0.3615141322353566</v>
       </c>
       <c r="J9">
-        <v>0.9256156321643374</v>
+        <v>0.9256156321642948</v>
       </c>
       <c r="K9">
         <v>0.8036636182393408</v>
@@ -719,10 +719,10 @@
         <v>3.887535589217066</v>
       </c>
       <c r="C10">
-        <v>1.051895281462407</v>
+        <v>1.051895281461952</v>
       </c>
       <c r="D10">
-        <v>0.01315117426807078</v>
+        <v>0.01315117426844115</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.936258819983536</v>
+        <v>1.936258819983507</v>
       </c>
       <c r="I10">
-        <v>0.4408095318682399</v>
+        <v>0.4408095318682328</v>
       </c>
       <c r="J10">
-        <v>1.121079772179215</v>
+        <v>1.121079772179229</v>
       </c>
       <c r="K10">
-        <v>0.9795618490964557</v>
+        <v>0.9795618490964699</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.20429615831722</v>
+        <v>4.20429615831705</v>
       </c>
       <c r="C11">
-        <v>1.13917164087664</v>
+        <v>1.139171640876413</v>
       </c>
       <c r="D11">
-        <v>0.01280806723122918</v>
+        <v>0.01280806723112615</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.068561892860458</v>
+        <v>2.068561892860487</v>
       </c>
       <c r="I11">
-        <v>0.4786532323438237</v>
+        <v>0.4786532323438308</v>
       </c>
       <c r="J11">
-        <v>1.212897931980237</v>
+        <v>1.212897931980223</v>
       </c>
       <c r="K11">
-        <v>1.062956387528033</v>
+        <v>1.062956387528004</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>4.325927998312295</v>
       </c>
       <c r="C12">
-        <v>1.172744028321745</v>
+        <v>1.172744028321972</v>
       </c>
       <c r="D12">
-        <v>0.01267553895848561</v>
+        <v>0.01267553895835505</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.200674965335395</v>
+        <v>4.200674965335367</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>2.119907435381251</v>
       </c>
       <c r="I12">
-        <v>0.4932909344457386</v>
+        <v>0.4932909344457457</v>
       </c>
       <c r="J12">
-        <v>1.24817149141569</v>
+        <v>1.248171491415732</v>
       </c>
       <c r="K12">
-        <v>1.095123227509447</v>
+        <v>1.095123227509461</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.2996525060762</v>
+        <v>4.299652506076313</v>
       </c>
       <c r="C13">
-        <v>1.165488748298429</v>
+        <v>1.1654887482986</v>
       </c>
       <c r="D13">
-        <v>0.01270420093301805</v>
+        <v>0.01270420093303493</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.176794202124313</v>
+        <v>4.176794202124285</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.108790520070556</v>
+        <v>2.108790520070528</v>
       </c>
       <c r="I13">
-        <v>0.4901238512855173</v>
+        <v>0.4901238512854889</v>
       </c>
       <c r="J13">
-        <v>1.240550742416346</v>
+        <v>1.240550742416318</v>
       </c>
       <c r="K13">
         <v>1.088167603347287</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.214267358707957</v>
+        <v>4.2142673587079</v>
       </c>
       <c r="C14">
-        <v>1.141922608256266</v>
+        <v>1.141922608256067</v>
       </c>
       <c r="D14">
-        <v>0.0127972175957467</v>
+        <v>0.01279721759569608</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.099345597056953</v>
+        <v>4.099345597056896</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>2.072759969236941</v>
       </c>
       <c r="I14">
-        <v>0.4798509971389464</v>
+        <v>0.4798509971389606</v>
       </c>
       <c r="J14">
         <v>1.215789258086872</v>
       </c>
       <c r="K14">
-        <v>1.065590361435696</v>
+        <v>1.065590361435738</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.16219485097804</v>
+        <v>4.162194850977869</v>
       </c>
       <c r="C15">
-        <v>1.127558706946758</v>
+        <v>1.127558706946559</v>
       </c>
       <c r="D15">
-        <v>0.01285384694944014</v>
+        <v>0.01285384694955294</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.052230174220767</v>
+        <v>4.052230174220796</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.050858531567272</v>
+        <v>2.0508585315673</v>
       </c>
       <c r="I15">
-        <v>0.4736002824404721</v>
+        <v>0.4736002824405432</v>
       </c>
       <c r="J15">
-        <v>1.200690597221353</v>
+        <v>1.200690597221339</v>
       </c>
       <c r="K15">
-        <v>1.051840922392316</v>
+        <v>1.051840922392287</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.867053066916355</v>
+        <v>3.867053066916412</v>
       </c>
       <c r="C16">
-        <v>1.046259413190199</v>
+        <v>1.046259413190427</v>
       </c>
       <c r="D16">
-        <v>0.01317324631653261</v>
+        <v>0.01317324631666672</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>1.927775762023202</v>
       </c>
       <c r="I16">
-        <v>0.4383762810158984</v>
+        <v>0.43837628101587</v>
       </c>
       <c r="J16">
-        <v>1.115144717411525</v>
+        <v>1.115144717411539</v>
       </c>
       <c r="K16">
-        <v>0.9741880689962272</v>
+        <v>0.9741880689962557</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.688665030357754</v>
+        <v>3.688665030357697</v>
       </c>
       <c r="C17">
-        <v>0.997213915386908</v>
+        <v>0.9972139153868795</v>
       </c>
       <c r="D17">
         <v>0.0133648103834183</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.854274634213638</v>
+        <v>1.854274634213652</v>
       </c>
       <c r="I17">
-        <v>0.4172557946255324</v>
+        <v>0.4172557946255395</v>
       </c>
       <c r="J17">
-        <v>1.063465522631788</v>
+        <v>1.063465522631802</v>
       </c>
       <c r="K17">
         <v>0.9274825661103847</v>
@@ -1023,10 +1023,10 @@
         <v>3.586952825599099</v>
       </c>
       <c r="C18">
-        <v>0.9692804859366504</v>
+        <v>0.9692804859365935</v>
       </c>
       <c r="D18">
-        <v>0.01347345778123366</v>
+        <v>0.01347345778137132</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>1.812676941559474</v>
       </c>
       <c r="I18">
-        <v>0.4052710111494662</v>
+        <v>0.405271011149523</v>
       </c>
       <c r="J18">
-        <v>1.034008069553863</v>
+        <v>1.034008069553892</v>
       </c>
       <c r="K18">
         <v>0.9009297170817803</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.552659946372444</v>
+        <v>3.55265994637233</v>
       </c>
       <c r="C19">
-        <v>0.9598676129928947</v>
+        <v>0.9598676129926389</v>
       </c>
       <c r="D19">
-        <v>0.01350998697314143</v>
+        <v>0.01350998697315742</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.507563972622847</v>
+        <v>3.507563972622819</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.798703876173249</v>
+        <v>1.798703876173235</v>
       </c>
       <c r="I19">
-        <v>0.4012397408173456</v>
+        <v>0.4012397408173882</v>
       </c>
       <c r="J19">
-        <v>1.024077724581105</v>
+        <v>1.024077724581076</v>
       </c>
       <c r="K19">
-        <v>0.8919899615192151</v>
+        <v>0.8919899615192008</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>3.707560491848596</v>
       </c>
       <c r="C20">
-        <v>1.002405689371983</v>
+        <v>1.002405689371756</v>
       </c>
       <c r="D20">
-        <v>0.01334457855930804</v>
+        <v>0.01334457855933557</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.644751468694579</v>
+        <v>3.644751468694494</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.862027487174757</v>
+        <v>1.862027487174728</v>
       </c>
       <c r="I20">
-        <v>0.4194868691924469</v>
+        <v>0.4194868691924611</v>
       </c>
       <c r="J20">
-        <v>1.068938637159164</v>
+        <v>1.068938637159192</v>
       </c>
       <c r="K20">
-        <v>0.9324215869551864</v>
+        <v>0.9324215869552006</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.239298871724884</v>
+        <v>4.239298871724998</v>
       </c>
       <c r="C21">
         <v>1.148829565313775</v>
       </c>
       <c r="D21">
-        <v>0.01276996890972626</v>
+        <v>0.0127699689097085</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.083307555761905</v>
+        <v>2.083307555761934</v>
       </c>
       <c r="I21">
-        <v>0.4828595853658726</v>
+        <v>0.4828595853658371</v>
       </c>
       <c r="J21">
-        <v>1.223047862525306</v>
+        <v>1.223047862525334</v>
       </c>
       <c r="K21">
-        <v>1.072205013323085</v>
+        <v>1.072205013323099</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.596792232160055</v>
+        <v>4.596792232160169</v>
       </c>
       <c r="C22">
-        <v>1.24762693368524</v>
+        <v>1.247626933684728</v>
       </c>
       <c r="D22">
-        <v>0.01237914151652575</v>
+        <v>0.01237914151666963</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.448136138253261</v>
+        <v>4.44813613825329</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.235296816179741</v>
+        <v>2.235296816179712</v>
       </c>
       <c r="I22">
-        <v>0.5260987883976185</v>
+        <v>0.5260987883975687</v>
       </c>
       <c r="J22">
-        <v>1.326756353913979</v>
+        <v>1.326756353913964</v>
       </c>
       <c r="K22">
         <v>1.167044485600911</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.404970462610663</v>
+        <v>4.404970462610549</v>
       </c>
       <c r="C23">
-        <v>1.194578882808344</v>
+        <v>1.194578882808116</v>
       </c>
       <c r="D23">
-        <v>0.01258921536741298</v>
+        <v>0.01258921536743163</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.272647392366423</v>
+        <v>4.272647392366395</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.153431884530065</v>
+        <v>2.153431884530036</v>
       </c>
       <c r="I23">
-        <v>0.502834735265516</v>
+        <v>0.5028347352654805</v>
       </c>
       <c r="J23">
-        <v>1.271099001550795</v>
+        <v>1.271099001550766</v>
       </c>
       <c r="K23">
-        <v>1.116069843715593</v>
+        <v>1.116069843715565</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.699015241465929</v>
+        <v>3.699015241466043</v>
       </c>
       <c r="C24">
-        <v>1.000057674341491</v>
+        <v>1.000057674341519</v>
       </c>
       <c r="D24">
-        <v>0.01335372997636952</v>
+        <v>0.01335372997662354</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.6371609902111</v>
+        <v>3.637160990211129</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>1.858520383338046</v>
       </c>
       <c r="I24">
-        <v>0.4184777131099224</v>
+        <v>0.4184777131099011</v>
       </c>
       <c r="J24">
-        <v>1.066463458528034</v>
+        <v>1.066463458528006</v>
       </c>
       <c r="K24">
-        <v>0.9301877324531773</v>
+        <v>0.9301877324532057</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.970822917359669</v>
+        <v>2.970822917359783</v>
       </c>
       <c r="C25">
-        <v>0.8005446734258612</v>
+        <v>0.8005446734259181</v>
       </c>
       <c r="D25">
-        <v>0.01412045156290276</v>
+        <v>0.01412045156300579</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.000313869965225</v>
+        <v>3.000313869965282</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>1.565811818147964</v>
       </c>
       <c r="I25">
-        <v>0.3335813268908936</v>
+        <v>0.3335813268908439</v>
       </c>
       <c r="J25">
-        <v>0.8556994470961712</v>
+        <v>0.8556994470961854</v>
       </c>
       <c r="K25">
-        <v>0.7412945390137509</v>
+        <v>0.7412945390137082</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.454501121907924</v>
+        <v>2.454501121908038</v>
       </c>
       <c r="C2">
-        <v>0.6597500969851922</v>
+        <v>0.659750096985249</v>
       </c>
       <c r="D2">
-        <v>0.0146429026761048</v>
+        <v>0.01464290267600532</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.561926833881159</v>
+        <v>2.561926833881131</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>1.366392270078322</v>
       </c>
       <c r="I2">
-        <v>0.2747493925704632</v>
+        <v>0.2747493925704774</v>
       </c>
       <c r="J2">
         <v>0.706445121094049</v>
       </c>
       <c r="K2">
-        <v>0.6091503759065162</v>
+        <v>0.6091503759065233</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.113390284951834</v>
+        <v>2.113390284951777</v>
       </c>
       <c r="C3">
-        <v>0.5670231846301022</v>
+        <v>0.5670231846304432</v>
       </c>
       <c r="D3">
-        <v>0.01497418430115793</v>
+        <v>0.01497418430138264</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.279262229014876</v>
+        <v>2.27926222901489</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.238944949960342</v>
+        <v>1.238944949960327</v>
       </c>
       <c r="I3">
-        <v>0.2365436906758518</v>
+        <v>0.2365436906758802</v>
       </c>
       <c r="J3">
-        <v>0.6079202951153988</v>
+        <v>0.6079202951153917</v>
       </c>
       <c r="K3">
-        <v>0.5226957332855235</v>
+        <v>0.5226957332855164</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.907289103229061</v>
+        <v>1.907289103229175</v>
       </c>
       <c r="C4">
-        <v>0.5111031527423506</v>
+        <v>0.5111031527421517</v>
       </c>
       <c r="D4">
-        <v>0.01516740612132406</v>
+        <v>0.0151674061212006</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.111529154389999</v>
+        <v>2.111529154389984</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>1.163830693921767</v>
       </c>
       <c r="I4">
-        <v>0.2137319396364319</v>
+        <v>0.213731939636439</v>
       </c>
       <c r="J4">
-        <v>0.5484205532258599</v>
+        <v>0.5484205532258457</v>
       </c>
       <c r="K4">
         <v>0.4708001138668934</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.824009585000368</v>
+        <v>1.824009585000653</v>
       </c>
       <c r="C5">
-        <v>0.4885291776540726</v>
+        <v>0.488529177653902</v>
       </c>
       <c r="D5">
-        <v>0.01524373148342395</v>
+        <v>0.01524373148364866</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.133922584095544</v>
+        <v>1.133922584095515</v>
       </c>
       <c r="I5">
-        <v>0.20457556271041</v>
+        <v>0.2045755627103887</v>
       </c>
       <c r="J5">
-        <v>0.5243844534646982</v>
+        <v>0.5243844534647124</v>
       </c>
       <c r="K5">
-        <v>0.4499059179497351</v>
+        <v>0.449905917949728</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.810220251185683</v>
+        <v>1.810220251185655</v>
       </c>
       <c r="C6">
-        <v>0.4847925751030857</v>
+        <v>0.4847925751030289</v>
       </c>
       <c r="D6">
-        <v>0.01525626363639709</v>
+        <v>0.01525626363641841</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.033407034276067</v>
+        <v>2.033407034276081</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>1.128996326554187</v>
       </c>
       <c r="I6">
-        <v>0.2030629552812115</v>
+        <v>0.2030629552811973</v>
       </c>
       <c r="J6">
-        <v>0.5204049066116738</v>
+        <v>0.5204049066116525</v>
       </c>
       <c r="K6">
-        <v>0.4464505439290178</v>
+        <v>0.4464505439290036</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.906163263501014</v>
+        <v>1.906163263500986</v>
       </c>
       <c r="C7">
-        <v>0.5107978977687253</v>
+        <v>0.5107978977688674</v>
       </c>
       <c r="D7">
-        <v>0.01516844505616888</v>
+        <v>0.01516844505605786</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.163424612138002</v>
+        <v>1.163424612138016</v>
       </c>
       <c r="I7">
-        <v>0.2136079170564642</v>
+        <v>0.21360791705645</v>
       </c>
       <c r="J7">
-        <v>0.548095591156347</v>
+        <v>0.5480955911563257</v>
       </c>
       <c r="K7">
-        <v>0.4705173564728469</v>
+        <v>0.4705173564728611</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.336108669996804</v>
+        <v>2.33610866999652</v>
       </c>
       <c r="C8">
-        <v>0.6275410894785409</v>
+        <v>0.6275410894782851</v>
       </c>
       <c r="D8">
-        <v>0.01475933360575521</v>
+        <v>0.01475933360584403</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.463146354689812</v>
+        <v>2.463146354689826</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.321741439629875</v>
+        <v>1.321741439629847</v>
       </c>
       <c r="I8">
-        <v>0.2614272175923773</v>
+        <v>0.2614272175923702</v>
       </c>
       <c r="J8">
-        <v>0.6722421219230128</v>
+        <v>0.6722421219229915</v>
       </c>
       <c r="K8">
-        <v>0.5790656841465704</v>
+        <v>0.5790656841465776</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.212504772101852</v>
+        <v>3.212504772101909</v>
       </c>
       <c r="C9">
-        <v>0.8666368008179575</v>
+        <v>0.8666368008177585</v>
       </c>
       <c r="D9">
-        <v>0.01386920495519117</v>
+        <v>0.01386920495528621</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.20941568266349</v>
+        <v>3.209415682663519</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>1.661564271372512</v>
       </c>
       <c r="I9">
-        <v>0.3615141322353566</v>
+        <v>0.3615141322353352</v>
       </c>
       <c r="J9">
-        <v>0.9256156321642948</v>
+        <v>0.9256156321643374</v>
       </c>
       <c r="K9">
         <v>0.8036636182393408</v>
@@ -719,10 +719,10 @@
         <v>3.887535589217066</v>
       </c>
       <c r="C10">
-        <v>1.051895281461952</v>
+        <v>1.051895281462407</v>
       </c>
       <c r="D10">
-        <v>0.01315117426844115</v>
+        <v>0.01315117426807078</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.936258819983507</v>
+        <v>1.936258819983536</v>
       </c>
       <c r="I10">
-        <v>0.4408095318682328</v>
+        <v>0.4408095318682399</v>
       </c>
       <c r="J10">
-        <v>1.121079772179229</v>
+        <v>1.121079772179215</v>
       </c>
       <c r="K10">
-        <v>0.9795618490964699</v>
+        <v>0.9795618490964557</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.20429615831705</v>
+        <v>4.20429615831722</v>
       </c>
       <c r="C11">
-        <v>1.139171640876413</v>
+        <v>1.13917164087664</v>
       </c>
       <c r="D11">
-        <v>0.01280806723112615</v>
+        <v>0.01280806723122918</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.068561892860487</v>
+        <v>2.068561892860458</v>
       </c>
       <c r="I11">
-        <v>0.4786532323438308</v>
+        <v>0.4786532323438237</v>
       </c>
       <c r="J11">
-        <v>1.212897931980223</v>
+        <v>1.212897931980237</v>
       </c>
       <c r="K11">
-        <v>1.062956387528004</v>
+        <v>1.062956387528033</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>4.325927998312295</v>
       </c>
       <c r="C12">
-        <v>1.172744028321972</v>
+        <v>1.172744028321745</v>
       </c>
       <c r="D12">
-        <v>0.01267553895835505</v>
+        <v>0.01267553895848561</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.200674965335367</v>
+        <v>4.200674965335395</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>2.119907435381251</v>
       </c>
       <c r="I12">
-        <v>0.4932909344457457</v>
+        <v>0.4932909344457386</v>
       </c>
       <c r="J12">
-        <v>1.248171491415732</v>
+        <v>1.24817149141569</v>
       </c>
       <c r="K12">
-        <v>1.095123227509461</v>
+        <v>1.095123227509447</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.299652506076313</v>
+        <v>4.2996525060762</v>
       </c>
       <c r="C13">
-        <v>1.1654887482986</v>
+        <v>1.165488748298429</v>
       </c>
       <c r="D13">
-        <v>0.01270420093303493</v>
+        <v>0.01270420093301805</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.176794202124285</v>
+        <v>4.176794202124313</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.108790520070528</v>
+        <v>2.108790520070556</v>
       </c>
       <c r="I13">
-        <v>0.4901238512854889</v>
+        <v>0.4901238512855173</v>
       </c>
       <c r="J13">
-        <v>1.240550742416318</v>
+        <v>1.240550742416346</v>
       </c>
       <c r="K13">
         <v>1.088167603347287</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.2142673587079</v>
+        <v>4.214267358707957</v>
       </c>
       <c r="C14">
-        <v>1.141922608256067</v>
+        <v>1.141922608256266</v>
       </c>
       <c r="D14">
-        <v>0.01279721759569608</v>
+        <v>0.0127972175957467</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.099345597056896</v>
+        <v>4.099345597056953</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>2.072759969236941</v>
       </c>
       <c r="I14">
-        <v>0.4798509971389606</v>
+        <v>0.4798509971389464</v>
       </c>
       <c r="J14">
         <v>1.215789258086872</v>
       </c>
       <c r="K14">
-        <v>1.065590361435738</v>
+        <v>1.065590361435696</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.162194850977869</v>
+        <v>4.16219485097804</v>
       </c>
       <c r="C15">
-        <v>1.127558706946559</v>
+        <v>1.127558706946758</v>
       </c>
       <c r="D15">
-        <v>0.01285384694955294</v>
+        <v>0.01285384694944014</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.052230174220796</v>
+        <v>4.052230174220767</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.0508585315673</v>
+        <v>2.050858531567272</v>
       </c>
       <c r="I15">
-        <v>0.4736002824405432</v>
+        <v>0.4736002824404721</v>
       </c>
       <c r="J15">
-        <v>1.200690597221339</v>
+        <v>1.200690597221353</v>
       </c>
       <c r="K15">
-        <v>1.051840922392287</v>
+        <v>1.051840922392316</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.867053066916412</v>
+        <v>3.867053066916355</v>
       </c>
       <c r="C16">
-        <v>1.046259413190427</v>
+        <v>1.046259413190199</v>
       </c>
       <c r="D16">
-        <v>0.01317324631666672</v>
+        <v>0.01317324631653261</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>1.927775762023202</v>
       </c>
       <c r="I16">
-        <v>0.43837628101587</v>
+        <v>0.4383762810158984</v>
       </c>
       <c r="J16">
-        <v>1.115144717411539</v>
+        <v>1.115144717411525</v>
       </c>
       <c r="K16">
-        <v>0.9741880689962557</v>
+        <v>0.9741880689962272</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.688665030357697</v>
+        <v>3.688665030357754</v>
       </c>
       <c r="C17">
-        <v>0.9972139153868795</v>
+        <v>0.997213915386908</v>
       </c>
       <c r="D17">
         <v>0.0133648103834183</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.854274634213652</v>
+        <v>1.854274634213638</v>
       </c>
       <c r="I17">
-        <v>0.4172557946255395</v>
+        <v>0.4172557946255324</v>
       </c>
       <c r="J17">
-        <v>1.063465522631802</v>
+        <v>1.063465522631788</v>
       </c>
       <c r="K17">
         <v>0.9274825661103847</v>
@@ -1023,10 +1023,10 @@
         <v>3.586952825599099</v>
       </c>
       <c r="C18">
-        <v>0.9692804859365935</v>
+        <v>0.9692804859366504</v>
       </c>
       <c r="D18">
-        <v>0.01347345778137132</v>
+        <v>0.01347345778123366</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>1.812676941559474</v>
       </c>
       <c r="I18">
-        <v>0.405271011149523</v>
+        <v>0.4052710111494662</v>
       </c>
       <c r="J18">
-        <v>1.034008069553892</v>
+        <v>1.034008069553863</v>
       </c>
       <c r="K18">
         <v>0.9009297170817803</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.55265994637233</v>
+        <v>3.552659946372444</v>
       </c>
       <c r="C19">
-        <v>0.9598676129926389</v>
+        <v>0.9598676129928947</v>
       </c>
       <c r="D19">
-        <v>0.01350998697315742</v>
+        <v>0.01350998697314143</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.507563972622819</v>
+        <v>3.507563972622847</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.798703876173235</v>
+        <v>1.798703876173249</v>
       </c>
       <c r="I19">
-        <v>0.4012397408173882</v>
+        <v>0.4012397408173456</v>
       </c>
       <c r="J19">
-        <v>1.024077724581076</v>
+        <v>1.024077724581105</v>
       </c>
       <c r="K19">
-        <v>0.8919899615192008</v>
+        <v>0.8919899615192151</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>3.707560491848596</v>
       </c>
       <c r="C20">
-        <v>1.002405689371756</v>
+        <v>1.002405689371983</v>
       </c>
       <c r="D20">
-        <v>0.01334457855933557</v>
+        <v>0.01334457855930804</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.644751468694494</v>
+        <v>3.644751468694579</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.862027487174728</v>
+        <v>1.862027487174757</v>
       </c>
       <c r="I20">
-        <v>0.4194868691924611</v>
+        <v>0.4194868691924469</v>
       </c>
       <c r="J20">
-        <v>1.068938637159192</v>
+        <v>1.068938637159164</v>
       </c>
       <c r="K20">
-        <v>0.9324215869552006</v>
+        <v>0.9324215869551864</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.239298871724998</v>
+        <v>4.239298871724884</v>
       </c>
       <c r="C21">
         <v>1.148829565313775</v>
       </c>
       <c r="D21">
-        <v>0.0127699689097085</v>
+        <v>0.01276996890972626</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.083307555761934</v>
+        <v>2.083307555761905</v>
       </c>
       <c r="I21">
-        <v>0.4828595853658371</v>
+        <v>0.4828595853658726</v>
       </c>
       <c r="J21">
-        <v>1.223047862525334</v>
+        <v>1.223047862525306</v>
       </c>
       <c r="K21">
-        <v>1.072205013323099</v>
+        <v>1.072205013323085</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.596792232160169</v>
+        <v>4.596792232160055</v>
       </c>
       <c r="C22">
-        <v>1.247626933684728</v>
+        <v>1.24762693368524</v>
       </c>
       <c r="D22">
-        <v>0.01237914151666963</v>
+        <v>0.01237914151652575</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.44813613825329</v>
+        <v>4.448136138253261</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.235296816179712</v>
+        <v>2.235296816179741</v>
       </c>
       <c r="I22">
-        <v>0.5260987883975687</v>
+        <v>0.5260987883976185</v>
       </c>
       <c r="J22">
-        <v>1.326756353913964</v>
+        <v>1.326756353913979</v>
       </c>
       <c r="K22">
         <v>1.167044485600911</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.404970462610549</v>
+        <v>4.404970462610663</v>
       </c>
       <c r="C23">
-        <v>1.194578882808116</v>
+        <v>1.194578882808344</v>
       </c>
       <c r="D23">
-        <v>0.01258921536743163</v>
+        <v>0.01258921536741298</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.272647392366395</v>
+        <v>4.272647392366423</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.153431884530036</v>
+        <v>2.153431884530065</v>
       </c>
       <c r="I23">
-        <v>0.5028347352654805</v>
+        <v>0.502834735265516</v>
       </c>
       <c r="J23">
-        <v>1.271099001550766</v>
+        <v>1.271099001550795</v>
       </c>
       <c r="K23">
-        <v>1.116069843715565</v>
+        <v>1.116069843715593</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.699015241466043</v>
+        <v>3.699015241465929</v>
       </c>
       <c r="C24">
-        <v>1.000057674341519</v>
+        <v>1.000057674341491</v>
       </c>
       <c r="D24">
-        <v>0.01335372997662354</v>
+        <v>0.01335372997636952</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.637160990211129</v>
+        <v>3.6371609902111</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>1.858520383338046</v>
       </c>
       <c r="I24">
-        <v>0.4184777131099011</v>
+        <v>0.4184777131099224</v>
       </c>
       <c r="J24">
-        <v>1.066463458528006</v>
+        <v>1.066463458528034</v>
       </c>
       <c r="K24">
-        <v>0.9301877324532057</v>
+        <v>0.9301877324531773</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.970822917359783</v>
+        <v>2.970822917359669</v>
       </c>
       <c r="C25">
-        <v>0.8005446734259181</v>
+        <v>0.8005446734258612</v>
       </c>
       <c r="D25">
-        <v>0.01412045156300579</v>
+        <v>0.01412045156290276</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.000313869965282</v>
+        <v>3.000313869965225</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>1.565811818147964</v>
       </c>
       <c r="I25">
-        <v>0.3335813268908439</v>
+        <v>0.3335813268908936</v>
       </c>
       <c r="J25">
-        <v>0.8556994470961854</v>
+        <v>0.8556994470961712</v>
       </c>
       <c r="K25">
-        <v>0.7412945390137082</v>
+        <v>0.7412945390137509</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.454501121908038</v>
+        <v>2.436289014384954</v>
       </c>
       <c r="C2">
-        <v>0.659750096985249</v>
+        <v>0.6510845706592647</v>
       </c>
       <c r="D2">
-        <v>0.01464290267600532</v>
+        <v>0.01686068987228406</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.561926833881131</v>
+        <v>2.575051644245917</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007840682606041667</v>
       </c>
       <c r="H2">
-        <v>1.366392270078322</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2747493925704774</v>
+        <v>1.379221961017066</v>
       </c>
       <c r="J2">
-        <v>0.706445121094049</v>
+        <v>0.2737732696682613</v>
       </c>
       <c r="K2">
-        <v>0.6091503759065233</v>
+        <v>0.7002706456476133</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.6065996599677987</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.113390284951777</v>
+        <v>2.098037401466627</v>
       </c>
       <c r="C3">
-        <v>0.5670231846304432</v>
+        <v>0.5595222053855196</v>
       </c>
       <c r="D3">
-        <v>0.01497418430138264</v>
+        <v>0.01722839623162375</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.27926222901489</v>
+        <v>2.296000146768847</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007931358299891242</v>
       </c>
       <c r="H3">
-        <v>1.238944949960327</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2365436906758802</v>
+        <v>1.253678170934606</v>
       </c>
       <c r="J3">
-        <v>0.6079202951153917</v>
+        <v>0.2357084388484054</v>
       </c>
       <c r="K3">
-        <v>0.5226957332855164</v>
+        <v>0.6026790783689009</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5205652625546904</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.907289103229175</v>
+        <v>1.893688492451815</v>
       </c>
       <c r="C4">
-        <v>0.5111031527421517</v>
+        <v>0.5043181399169612</v>
       </c>
       <c r="D4">
-        <v>0.0151674061212006</v>
+        <v>0.0174435989706696</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.111529154389984</v>
+        <v>2.130469054550844</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007988291263867476</v>
       </c>
       <c r="H4">
-        <v>1.163830693921767</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.213731939636439</v>
+        <v>1.179723990122483</v>
       </c>
       <c r="J4">
-        <v>0.5484205532258457</v>
+        <v>0.2129772347646153</v>
       </c>
       <c r="K4">
-        <v>0.4708001138668934</v>
+        <v>0.5437520865620371</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4689176100518253</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.824009585000653</v>
+        <v>1.811123926473385</v>
       </c>
       <c r="C5">
-        <v>0.488529177653902</v>
+        <v>0.4820368107863544</v>
       </c>
       <c r="D5">
-        <v>0.01524373148364866</v>
+        <v>0.01752879715651634</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.044468990875728</v>
+        <v>2.064304491378806</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008011830381491336</v>
       </c>
       <c r="H5">
-        <v>1.133922584095515</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2045755627103887</v>
+        <v>1.150287701089098</v>
       </c>
       <c r="J5">
-        <v>0.5243844534647124</v>
+        <v>0.2038524268150113</v>
       </c>
       <c r="K5">
-        <v>0.449905917949728</v>
+        <v>0.5199498637757145</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4481224295987047</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.810220251185655</v>
+        <v>1.797453409542868</v>
       </c>
       <c r="C6">
-        <v>0.4847925751030289</v>
+        <v>0.4783488727366887</v>
       </c>
       <c r="D6">
-        <v>0.01525626363641841</v>
+        <v>0.01754279785192026</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.033407034276081</v>
+        <v>2.053391209385524</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008015760088479439</v>
       </c>
       <c r="H6">
-        <v>1.128996326554187</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2030629552811973</v>
+        <v>1.145439767657365</v>
       </c>
       <c r="J6">
-        <v>0.5204049066116525</v>
+        <v>0.2023449920102678</v>
       </c>
       <c r="K6">
-        <v>0.4464505439290036</v>
+        <v>0.5160091954511543</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4446833874594134</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.906163263500986</v>
+        <v>1.892572289119244</v>
       </c>
       <c r="C7">
-        <v>0.5107978977688674</v>
+        <v>0.5040168272893482</v>
       </c>
       <c r="D7">
-        <v>0.01516844505605786</v>
+        <v>0.01744475789532451</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.110619740319734</v>
+        <v>2.129571722866885</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007988607322131358</v>
       </c>
       <c r="H7">
-        <v>1.163424612138016</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.21360791705645</v>
+        <v>1.179324273637604</v>
       </c>
       <c r="J7">
-        <v>0.5480955911563257</v>
+        <v>0.2128536427211927</v>
       </c>
       <c r="K7">
-        <v>0.4705173564728611</v>
+        <v>0.5434302760383432</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4686361956398599</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.33610866999652</v>
+        <v>2.318884215928961</v>
       </c>
       <c r="C8">
-        <v>0.6275410894782851</v>
+        <v>0.6192773242625833</v>
       </c>
       <c r="D8">
-        <v>0.01475933360584403</v>
+        <v>0.01698976740552283</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.463146354689826</v>
+        <v>2.477521941008774</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007871700578340058</v>
       </c>
       <c r="H8">
-        <v>1.321741439629847</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2614272175923702</v>
+        <v>1.335230088849201</v>
       </c>
       <c r="J8">
-        <v>0.6722421219229915</v>
+        <v>0.2605010585903571</v>
       </c>
       <c r="K8">
-        <v>0.5790656841465776</v>
+        <v>0.6663898427351569</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5766622811400453</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.212504772101909</v>
+        <v>3.188037199204302</v>
       </c>
       <c r="C9">
-        <v>0.8666368008177585</v>
+        <v>0.8554383552193485</v>
       </c>
       <c r="D9">
-        <v>0.01386920495528621</v>
+        <v>0.0160059996219859</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.209415682663519</v>
+        <v>3.214557884212979</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007651300693284319</v>
       </c>
       <c r="H9">
-        <v>1.661564271372512</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3615141322353352</v>
+        <v>1.670188724116542</v>
       </c>
       <c r="J9">
-        <v>0.9256156321643374</v>
+        <v>0.3601905407652168</v>
       </c>
       <c r="K9">
-        <v>0.8036636182393408</v>
+        <v>0.9174044672545136</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.8001291947630023</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.887535589217066</v>
+        <v>3.857518981355838</v>
       </c>
       <c r="C10">
-        <v>1.051895281462407</v>
+        <v>1.038465996467323</v>
       </c>
       <c r="D10">
-        <v>0.01315117426807078</v>
+        <v>0.01521591638382525</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.805213228271811</v>
+        <v>3.803197193547504</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007492977555285663</v>
       </c>
       <c r="H10">
-        <v>1.936258819983536</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4408095318682399</v>
+        <v>1.941113372156664</v>
       </c>
       <c r="J10">
-        <v>1.121079772179215</v>
+        <v>0.4391341616913635</v>
       </c>
       <c r="K10">
-        <v>0.9795618490964557</v>
+        <v>1.111067218712108</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.9750844060694845</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.20429615831722</v>
+        <v>4.171660601045573</v>
       </c>
       <c r="C11">
-        <v>1.13917164087664</v>
+        <v>1.124694518754637</v>
       </c>
       <c r="D11">
-        <v>0.01280806723122918</v>
+        <v>0.01483904645877576</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.0903167235316</v>
+        <v>4.084900546111669</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000742125922588599</v>
       </c>
       <c r="H11">
-        <v>2.068561892860458</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4786532323438237</v>
+        <v>2.071626310599285</v>
       </c>
       <c r="J11">
-        <v>1.212897931980237</v>
+        <v>0.4767979317506743</v>
       </c>
       <c r="K11">
-        <v>1.062956387528033</v>
+        <v>1.202036794671471</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.058011623934163</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.325927998312295</v>
+        <v>4.292282259228557</v>
       </c>
       <c r="C12">
-        <v>1.172744028321745</v>
+        <v>1.157863585870359</v>
       </c>
       <c r="D12">
-        <v>0.01267553895848561</v>
+        <v>0.01469356336656791</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.200674965335395</v>
+        <v>4.193943906334624</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007394097917695594</v>
       </c>
       <c r="H12">
-        <v>2.119907435381251</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4932909344457386</v>
+        <v>2.122279701167386</v>
       </c>
       <c r="J12">
-        <v>1.24817149141569</v>
+        <v>0.49136387174552</v>
       </c>
       <c r="K12">
-        <v>1.095123227509447</v>
+        <v>1.236983304538228</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.089994453773372</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.2996525060762</v>
+        <v>4.266225236814364</v>
       </c>
       <c r="C13">
-        <v>1.165488748298429</v>
+        <v>1.150695491027022</v>
       </c>
       <c r="D13">
-        <v>0.01270420093301805</v>
+        <v>0.01472502342889381</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.176794202124313</v>
+        <v>4.170347663374145</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007399948557361509</v>
       </c>
       <c r="H13">
-        <v>2.108790520070556</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4901238512855173</v>
+        <v>2.111312551039944</v>
       </c>
       <c r="J13">
-        <v>1.240550742416346</v>
+        <v>0.488212419396973</v>
       </c>
       <c r="K13">
-        <v>1.088167603347287</v>
+        <v>1.229433273401156</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.083078801398869</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.214267358707957</v>
+        <v>4.181549094392551</v>
       </c>
       <c r="C14">
-        <v>1.141922608256266</v>
+        <v>1.127412447152153</v>
       </c>
       <c r="D14">
-        <v>0.0127972175957467</v>
+        <v>0.0148271345971116</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.099345597056953</v>
+        <v>4.093821834448335</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007419025006050189</v>
       </c>
       <c r="H14">
-        <v>2.072759969236941</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4798509971389464</v>
+        <v>2.075767751687522</v>
       </c>
       <c r="J14">
-        <v>1.215789258086872</v>
+        <v>0.4779898703829417</v>
       </c>
       <c r="K14">
-        <v>1.065590361435696</v>
+        <v>1.20490133858307</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.060630610570456</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.16219485097804</v>
+        <v>4.129908308888616</v>
       </c>
       <c r="C15">
-        <v>1.127558706946758</v>
+        <v>1.113221040861191</v>
       </c>
       <c r="D15">
-        <v>0.01285384694944014</v>
+        <v>0.01488931161168328</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.052230174220767</v>
+        <v>4.047267858342025</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007430707957268833</v>
       </c>
       <c r="H15">
-        <v>2.050858531567272</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4736002824404721</v>
+        <v>2.054161877285807</v>
       </c>
       <c r="J15">
-        <v>1.200690597221353</v>
+        <v>0.4717694708063718</v>
       </c>
       <c r="K15">
-        <v>1.051840922392316</v>
+        <v>1.189942488909509</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.046959249505264</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.867053066916355</v>
+        <v>3.837205319800034</v>
       </c>
       <c r="C16">
-        <v>1.046259413190199</v>
+        <v>1.032897798971334</v>
       </c>
       <c r="D16">
-        <v>0.01317324631653261</v>
+        <v>0.01524017280979706</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.786894676105561</v>
+        <v>3.785097419429775</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007497666792467388</v>
       </c>
       <c r="H16">
-        <v>1.927775762023202</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4383762810158984</v>
+        <v>1.932745512138098</v>
       </c>
       <c r="J16">
-        <v>1.115144717411525</v>
+        <v>0.4367122080812536</v>
       </c>
       <c r="K16">
-        <v>0.9741880689962272</v>
+        <v>1.105186912318047</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9697402722330963</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.688665030357754</v>
+        <v>3.660286045336875</v>
       </c>
       <c r="C17">
-        <v>0.997213915386908</v>
+        <v>0.9844414711893137</v>
       </c>
       <c r="D17">
-        <v>0.0133648103834183</v>
+        <v>0.01545076686936131</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.62797069382097</v>
+        <v>3.628073973302037</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007538790598679218</v>
       </c>
       <c r="H17">
-        <v>1.854274634213638</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4172557946255324</v>
+        <v>1.860245179206231</v>
       </c>
       <c r="J17">
-        <v>1.063465522631788</v>
+        <v>0.4156884253435464</v>
       </c>
       <c r="K17">
-        <v>0.9274825661103847</v>
+        <v>1.053984102332208</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.923290139392634</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.586952825599099</v>
+        <v>3.559410067493502</v>
       </c>
       <c r="C18">
-        <v>0.9692804859366504</v>
+        <v>0.956843935404379</v>
       </c>
       <c r="D18">
-        <v>0.01347345778123366</v>
+        <v>0.01557026894208402</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.537860881048942</v>
+        <v>3.539044233011765</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000756247570213003</v>
       </c>
       <c r="H18">
-        <v>1.812676941559474</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4052710111494662</v>
+        <v>1.819216285573091</v>
       </c>
       <c r="J18">
-        <v>1.034008069553863</v>
+        <v>0.4037574450378258</v>
       </c>
       <c r="K18">
-        <v>0.9009297170817803</v>
+        <v>1.024798020285402</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.8968806746254074</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.552659946372444</v>
+        <v>3.525398979417218</v>
       </c>
       <c r="C19">
-        <v>0.9598676129928947</v>
+        <v>0.947544326393313</v>
       </c>
       <c r="D19">
-        <v>0.01350998697314143</v>
+        <v>0.0156104585044492</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.507563972622847</v>
+        <v>3.509110954121098</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007570501838223231</v>
       </c>
       <c r="H19">
-        <v>1.798703876173249</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4012397408173456</v>
+        <v>1.805434725936294</v>
       </c>
       <c r="J19">
-        <v>1.024077724581105</v>
+        <v>0.3997440995891139</v>
       </c>
       <c r="K19">
-        <v>0.8919899615192151</v>
+        <v>1.014959145772238</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.8879889066940336</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.707560491848596</v>
+        <v>3.679026072786542</v>
       </c>
       <c r="C20">
-        <v>1.002405689371983</v>
+        <v>0.9895708472557487</v>
       </c>
       <c r="D20">
-        <v>0.01334457855930804</v>
+        <v>0.01542851886174379</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.644751468694579</v>
+        <v>3.644653828657141</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007534409925096906</v>
       </c>
       <c r="H20">
-        <v>1.862027487174757</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4194868691924469</v>
+        <v>1.867892225581556</v>
       </c>
       <c r="J20">
-        <v>1.068938637159164</v>
+        <v>0.4179093987644222</v>
       </c>
       <c r="K20">
-        <v>0.9324215869551864</v>
+        <v>1.059406787349303</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9282023476228147</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.239298871724884</v>
+        <v>4.206372899982398</v>
       </c>
       <c r="C21">
-        <v>1.148829565313775</v>
+        <v>1.134236445306385</v>
       </c>
       <c r="D21">
-        <v>0.01276996890972626</v>
+        <v>0.01479721948182888</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.122025837941976</v>
+        <v>4.116231835437191</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007413422286926828</v>
       </c>
       <c r="H21">
-        <v>2.083307555761905</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4828595853658726</v>
+        <v>2.086173079796339</v>
       </c>
       <c r="J21">
-        <v>1.223047862525306</v>
+        <v>0.4809837882492971</v>
       </c>
       <c r="K21">
-        <v>1.072205013323085</v>
+        <v>1.212092687558126</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.067207562367372</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.596792232160055</v>
+        <v>4.560885529177028</v>
       </c>
       <c r="C22">
-        <v>1.24762693368524</v>
+        <v>1.231845497563484</v>
       </c>
       <c r="D22">
-        <v>0.01237914151652575</v>
+        <v>0.01436833722814423</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.448136138253261</v>
+        <v>4.438455743751831</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007334304087598387</v>
       </c>
       <c r="H22">
-        <v>2.235296816179741</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5260987883976185</v>
+        <v>2.23611681957567</v>
       </c>
       <c r="J22">
-        <v>1.326756353913979</v>
+        <v>0.5240063734820666</v>
       </c>
       <c r="K22">
-        <v>1.167044485600911</v>
+        <v>1.314836700904365</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.161496349815408</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.404970462610663</v>
+        <v>4.370666651710906</v>
       </c>
       <c r="C23">
-        <v>1.194578882808344</v>
+        <v>1.179435955635938</v>
       </c>
       <c r="D23">
-        <v>0.01258921536741298</v>
+        <v>0.01459882411655489</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.272647392366423</v>
+        <v>4.265058801909788</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007376552676217432</v>
       </c>
       <c r="H23">
-        <v>2.153431884530065</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.502834735265516</v>
+        <v>2.155352784966595</v>
       </c>
       <c r="J23">
-        <v>1.271099001550795</v>
+        <v>0.5008602200493684</v>
       </c>
       <c r="K23">
-        <v>1.116069843715593</v>
+        <v>1.259697840569729</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.110820080803265</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.699015241465929</v>
+        <v>3.670551119276979</v>
       </c>
       <c r="C24">
-        <v>1.000057674341491</v>
+        <v>0.9872510510044776</v>
       </c>
       <c r="D24">
-        <v>0.01335372997636952</v>
+        <v>0.01543858206110826</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.6371609902111</v>
+        <v>3.637154224564398</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007536390291387946</v>
       </c>
       <c r="H24">
-        <v>1.858520383338046</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4184777131099224</v>
+        <v>1.864432977120543</v>
       </c>
       <c r="J24">
-        <v>1.066463458528034</v>
+        <v>0.4169048149403096</v>
       </c>
       <c r="K24">
-        <v>0.9301877324531773</v>
+        <v>1.056954415604864</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.925980625682115</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.970822917359669</v>
+        <v>2.948341734745725</v>
       </c>
       <c r="C25">
-        <v>0.8005446734258612</v>
+        <v>0.7901484111889374</v>
       </c>
       <c r="D25">
-        <v>0.01412045156290276</v>
+        <v>0.01628306706041549</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.000313869965225</v>
+        <v>3.008001659575143</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007710147854699528</v>
       </c>
       <c r="H25">
-        <v>1.565811818147964</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3335813268908936</v>
+        <v>1.575777195485628</v>
       </c>
       <c r="J25">
-        <v>0.8556994470961712</v>
+        <v>0.3323737946489302</v>
       </c>
       <c r="K25">
-        <v>0.7412945390137509</v>
+        <v>0.8481343048411105</v>
       </c>
       <c r="L25">
+        <v>0.7380817919462501</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.436289014384954</v>
+        <v>3.039776690184738</v>
       </c>
       <c r="C2">
-        <v>0.6510845706592647</v>
+        <v>0.5041496970603134</v>
       </c>
       <c r="D2">
-        <v>0.01686068987228406</v>
+        <v>0.06036381567848181</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.575051644245917</v>
+        <v>2.285960577054496</v>
       </c>
       <c r="G2">
-        <v>0.0007840682606041667</v>
+        <v>0.000808222967139919</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.379221961017066</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2737732696682613</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7002706456476133</v>
+        <v>0.7485283832155147</v>
       </c>
       <c r="L2">
-        <v>0.6065996599677987</v>
+        <v>0.1535503602822175</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4905753327826545</v>
+      </c>
+      <c r="N2">
+        <v>1.602054810808426</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.098037401466627</v>
+        <v>2.646322401848067</v>
       </c>
       <c r="C3">
-        <v>0.5595222053855196</v>
+        <v>0.4367758055827267</v>
       </c>
       <c r="D3">
-        <v>0.01722839623162375</v>
+        <v>0.06200105227180686</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.296000146768847</v>
+        <v>2.081655562374877</v>
       </c>
       <c r="G3">
-        <v>0.0007931358299891242</v>
+        <v>0.0008168929423446049</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.253678170934606</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2357084388484054</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6026790783689009</v>
+        <v>0.6470645350297346</v>
       </c>
       <c r="L3">
-        <v>0.5205652625546904</v>
+        <v>0.1408680360347674</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4305785492119654</v>
+      </c>
+      <c r="N3">
+        <v>1.615000429885427</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.893688492451815</v>
+        <v>2.409364677919655</v>
       </c>
       <c r="C4">
-        <v>0.5043181399169612</v>
+        <v>0.395955435709368</v>
       </c>
       <c r="D4">
-        <v>0.0174435989706696</v>
+        <v>0.06308309239783938</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.130469054550844</v>
+        <v>1.96073465090501</v>
       </c>
       <c r="G4">
-        <v>0.0007988291263867476</v>
+        <v>0.000822357796973594</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.179723990122483</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2129772347646153</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5437520865620371</v>
+        <v>0.5858582251693107</v>
       </c>
       <c r="L4">
-        <v>0.4689176100518253</v>
+        <v>0.1333189678697906</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3945075313430806</v>
+      </c>
+      <c r="N4">
+        <v>1.625071358280408</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.811123926473385</v>
+        <v>2.31382238956752</v>
       </c>
       <c r="C5">
-        <v>0.4820368107863544</v>
+        <v>0.3794334391562302</v>
       </c>
       <c r="D5">
-        <v>0.01752879715651634</v>
+        <v>0.06354225306859718</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.064304491378806</v>
+        <v>1.912485214039492</v>
       </c>
       <c r="G5">
-        <v>0.0008011830381491336</v>
+        <v>0.0008246220236365797</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.150287701089098</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2038524268150113</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5199498637757145</v>
+        <v>0.5611540829022914</v>
       </c>
       <c r="L5">
-        <v>0.4481224295987047</v>
+        <v>0.130297485395765</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3799792380894331</v>
+      </c>
+      <c r="N5">
+        <v>1.629677071372228</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.797453409542868</v>
+        <v>2.29801530889273</v>
       </c>
       <c r="C6">
-        <v>0.4783488727366887</v>
+        <v>0.3766960866246336</v>
       </c>
       <c r="D6">
-        <v>0.01754279785192026</v>
+        <v>0.06361956721045914</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.053391209385524</v>
+        <v>1.90453239012615</v>
       </c>
       <c r="G6">
-        <v>0.0008015760088479439</v>
+        <v>0.0008250002935794038</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.145439767657365</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2023449920102678</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5160091954511543</v>
+        <v>0.5570653291142023</v>
       </c>
       <c r="L6">
-        <v>0.4446833874594134</v>
+        <v>0.1297989429091899</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3775765416773709</v>
+      </c>
+      <c r="N6">
+        <v>1.630471267197294</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.892572289119244</v>
+        <v>2.408072212031072</v>
       </c>
       <c r="C7">
-        <v>0.5040168272893482</v>
+        <v>0.3957321897267718</v>
       </c>
       <c r="D7">
-        <v>0.01744475789532451</v>
+        <v>0.06308921237699394</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.129571722866885</v>
+        <v>1.960079924038183</v>
       </c>
       <c r="G7">
-        <v>0.0007988607322131358</v>
+        <v>0.0008223881801894091</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.179324273637604</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2128536427211927</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5434302760383432</v>
+        <v>0.5855241396225281</v>
       </c>
       <c r="L7">
-        <v>0.4686361956398599</v>
+        <v>0.133278003447785</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3943109333231263</v>
+      </c>
+      <c r="N7">
+        <v>1.62513148128663</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.318884215928961</v>
+        <v>2.903063729378687</v>
       </c>
       <c r="C8">
-        <v>0.6192773242625833</v>
+        <v>0.4807897614872445</v>
       </c>
       <c r="D8">
-        <v>0.01698976740552283</v>
+        <v>0.06091171320202804</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.477521941008774</v>
+        <v>2.214507832104999</v>
       </c>
       <c r="G8">
-        <v>0.0007871700578340058</v>
+        <v>0.0008111840723191739</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.335230088849201</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2605010585903571</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6663898427351569</v>
+        <v>0.7132935809732999</v>
       </c>
       <c r="L8">
-        <v>0.5766622811400453</v>
+        <v>0.149124968926813</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4697153618513354</v>
+      </c>
+      <c r="N8">
+        <v>1.606057888162027</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.188037199204302</v>
+        <v>3.917616036628999</v>
       </c>
       <c r="C9">
-        <v>0.8554383552193485</v>
+        <v>0.6531940350748471</v>
       </c>
       <c r="D9">
-        <v>0.0160059996219859</v>
+        <v>0.0573060913736434</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.214557884212979</v>
+        <v>2.754870878211904</v>
       </c>
       <c r="G9">
-        <v>0.0007651300693284319</v>
+        <v>0.0007902513563791621</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.670188724116542</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3601905407652168</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9174044672545136</v>
+        <v>0.9743745502383518</v>
       </c>
       <c r="L9">
-        <v>0.8001291947630023</v>
+        <v>0.1823384353593553</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6247734517940557</v>
+      </c>
+      <c r="N9">
+        <v>1.587090671959643</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.857518981355838</v>
+        <v>4.701022420028494</v>
       </c>
       <c r="C10">
-        <v>1.038465996467323</v>
+        <v>0.7852716582513608</v>
       </c>
       <c r="D10">
-        <v>0.01521591638382525</v>
+        <v>0.05515085941750542</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.803197193547504</v>
+        <v>3.18582013363428</v>
       </c>
       <c r="G10">
-        <v>0.0007492977555285663</v>
+        <v>0.0007753745512199331</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.941113372156664</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4391341616913635</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.111067218712108</v>
+        <v>1.175520378945151</v>
       </c>
       <c r="L10">
-        <v>0.9750844060694845</v>
+        <v>0.2084325368238353</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7448052647418848</v>
+      </c>
+      <c r="N10">
+        <v>1.586895884928012</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.171660601045573</v>
+        <v>5.068583905137359</v>
       </c>
       <c r="C11">
-        <v>1.124694518754637</v>
+        <v>0.847053391885737</v>
       </c>
       <c r="D11">
-        <v>0.01483904645877576</v>
+        <v>0.05430149679230922</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.084900546111669</v>
+        <v>3.391491039268999</v>
       </c>
       <c r="G11">
-        <v>0.000742125922588599</v>
+        <v>0.0007686823106237192</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.071626310599285</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4767979317506743</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.202036794671471</v>
+        <v>1.269807873578799</v>
       </c>
       <c r="L11">
-        <v>1.058011623934163</v>
+        <v>0.220770434171726</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8011835489328689</v>
+      </c>
+      <c r="N11">
+        <v>1.590441390510037</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.292282259228557</v>
+        <v>5.20965955538918</v>
       </c>
       <c r="C12">
-        <v>1.157863585870359</v>
+        <v>0.87074355215438</v>
       </c>
       <c r="D12">
-        <v>0.01469356336656791</v>
+        <v>0.05400111228671989</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.193943906334624</v>
+        <v>3.470975747535022</v>
       </c>
       <c r="G12">
-        <v>0.0007394097917695594</v>
+        <v>0.0007661557522928942</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.122279701167386</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.49136387174552</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.236983304538228</v>
+        <v>1.305985589306729</v>
       </c>
       <c r="L12">
-        <v>1.089994453773372</v>
+        <v>0.2255192193319004</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8228307172844112</v>
+      </c>
+      <c r="N12">
+        <v>1.592370011980989</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.266225236814364</v>
+        <v>5.179187552556527</v>
       </c>
       <c r="C13">
-        <v>1.150695491027022</v>
+        <v>0.8656274609719219</v>
       </c>
       <c r="D13">
-        <v>0.01472502342889381</v>
+        <v>0.0540648178365295</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.170347663374145</v>
+        <v>3.453782287206735</v>
       </c>
       <c r="G13">
-        <v>0.0007399948557361509</v>
+        <v>0.0007666996068667146</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.111312551039944</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.488212419396973</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.229433273401156</v>
+        <v>1.298171766310944</v>
       </c>
       <c r="L13">
-        <v>1.083078801398869</v>
+        <v>0.2244929089504666</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8181546200717165</v>
+      </c>
+      <c r="N13">
+        <v>1.591927479880297</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.181549094392551</v>
+        <v>5.080150705713265</v>
       </c>
       <c r="C14">
-        <v>1.127412447152153</v>
+        <v>0.8489961732661584</v>
       </c>
       <c r="D14">
-        <v>0.0148271345971116</v>
+        <v>0.05427634291695682</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.093821834448335</v>
+        <v>3.397996846986587</v>
       </c>
       <c r="G14">
-        <v>0.0007419025006050189</v>
+        <v>0.0007684743155545935</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.075767751687522</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4779898703829417</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.20490133858307</v>
+        <v>1.272774303084873</v>
       </c>
       <c r="L14">
-        <v>1.060630610570456</v>
+        <v>0.2211595240762136</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.802958238493872</v>
+      </c>
+      <c r="N14">
+        <v>1.590587919700454</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.129908308888616</v>
+        <v>5.019742609713546</v>
       </c>
       <c r="C15">
-        <v>1.113221040861191</v>
+        <v>0.8388490365040582</v>
       </c>
       <c r="D15">
-        <v>0.01488931161168328</v>
+        <v>0.05440875358807773</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.047267858342025</v>
+        <v>3.364042172273997</v>
       </c>
       <c r="G15">
-        <v>0.0007430707957268833</v>
+        <v>0.0007695622702674872</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.054161877285807</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4717694708063718</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.189942488909509</v>
+        <v>1.257281558028211</v>
       </c>
       <c r="L15">
-        <v>1.046959249505264</v>
+        <v>0.2191280183497923</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7936901800433134</v>
+      </c>
+      <c r="N15">
+        <v>1.589845750345205</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.837205319800034</v>
+        <v>4.677249554919285</v>
       </c>
       <c r="C16">
-        <v>1.032897798971334</v>
+        <v>0.7812724159311415</v>
       </c>
       <c r="D16">
-        <v>0.01524017280979706</v>
+        <v>0.05520920146518904</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.785097419429775</v>
+        <v>3.172590709633056</v>
       </c>
       <c r="G16">
-        <v>0.0007497666792467388</v>
+        <v>0.0007758131575516591</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.932745512138098</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4367122080812536</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.105186912318047</v>
+        <v>1.169420497330449</v>
       </c>
       <c r="L16">
-        <v>0.9697402722330963</v>
+        <v>0.2076364161979711</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7411600525425754</v>
+      </c>
+      <c r="N16">
+        <v>1.586742531798407</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.660286045336875</v>
+        <v>4.470193576523513</v>
       </c>
       <c r="C17">
-        <v>0.9844414711893137</v>
+        <v>0.7464198818722139</v>
       </c>
       <c r="D17">
-        <v>0.01545076686936131</v>
+        <v>0.05573541230204526</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.628073973302037</v>
+        <v>3.057753198052183</v>
       </c>
       <c r="G17">
-        <v>0.0007538790598679218</v>
+        <v>0.0007796650242112427</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.860245179206231</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4156884253435464</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.053984102332208</v>
+        <v>1.11628257036152</v>
       </c>
       <c r="L17">
-        <v>0.923290139392634</v>
+        <v>0.2007128064867345</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7094178180767798</v>
+      </c>
+      <c r="N17">
+        <v>1.585812060984765</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.559410067493502</v>
+        <v>4.352134545730792</v>
       </c>
       <c r="C18">
-        <v>0.956843935404379</v>
+        <v>0.7265301318769843</v>
       </c>
       <c r="D18">
-        <v>0.01557026894208402</v>
+        <v>0.05605024655214663</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.539044233011765</v>
+        <v>2.99259353304123</v>
       </c>
       <c r="G18">
-        <v>0.000756247570213003</v>
+        <v>0.0007818878160187285</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.819216285573091</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4037574450378258</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.024798020285402</v>
+        <v>1.085976318424386</v>
       </c>
       <c r="L18">
-        <v>0.8968806746254074</v>
+        <v>0.1967739065835943</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.691324752334971</v>
+      </c>
+      <c r="N18">
+        <v>1.585614666543862</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.525398979417218</v>
+        <v>4.312331472049152</v>
       </c>
       <c r="C19">
-        <v>0.947544326393313</v>
+        <v>0.7198212605788115</v>
       </c>
       <c r="D19">
-        <v>0.0156104585044492</v>
+        <v>0.05615886735297693</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.509110954121098</v>
+        <v>2.970678623210858</v>
       </c>
       <c r="G19">
-        <v>0.0007570501838223231</v>
+        <v>0.0007826417591784152</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.805434725936294</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3997440995891139</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.014959145772238</v>
+        <v>1.075757275618201</v>
       </c>
       <c r="L19">
-        <v>0.8879889066940336</v>
+        <v>0.1954474437126876</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6852257475631234</v>
+      </c>
+      <c r="N19">
+        <v>1.585604053314128</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.679026072786542</v>
+        <v>4.492126107705587</v>
       </c>
       <c r="C20">
-        <v>0.9895708472557487</v>
+        <v>0.7501134529257172</v>
       </c>
       <c r="D20">
-        <v>0.01542851886174379</v>
+        <v>0.05567812032966302</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.644653828657141</v>
+        <v>3.06988406754661</v>
       </c>
       <c r="G20">
-        <v>0.0007534409925096906</v>
+        <v>0.0007792542526433182</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.867892225581556</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4179093987644222</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.059406787349303</v>
+        <v>1.12191207147778</v>
       </c>
       <c r="L20">
-        <v>0.9282023476228147</v>
+        <v>0.2014452824393373</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7127795449523688</v>
+      </c>
+      <c r="N20">
+        <v>1.585875719410666</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.206372899982398</v>
+        <v>5.10918656758372</v>
       </c>
       <c r="C21">
-        <v>1.134236445306385</v>
+        <v>0.8538727476466192</v>
       </c>
       <c r="D21">
-        <v>0.01479721948182888</v>
+        <v>0.05421361503037403</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.116231835437191</v>
+        <v>3.414337039332224</v>
       </c>
       <c r="G21">
-        <v>0.0007413422286926828</v>
+        <v>0.0007679528604725927</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.086173079796339</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4809837882492971</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.212092687558126</v>
+        <v>1.280220685824261</v>
       </c>
       <c r="L21">
-        <v>1.067207562367372</v>
+        <v>0.2221364572273359</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8074133295606885</v>
+      </c>
+      <c r="N21">
+        <v>1.590964926970059</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.560885529177028</v>
+        <v>5.523635130973958</v>
       </c>
       <c r="C22">
-        <v>1.231845497563484</v>
+        <v>0.9234324460465473</v>
       </c>
       <c r="D22">
-        <v>0.01436833722814423</v>
+        <v>0.05338175416975943</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.438455743751831</v>
+        <v>3.648915514865678</v>
       </c>
       <c r="G22">
-        <v>0.0007334304087598387</v>
+        <v>0.0007606095289691037</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.23611681957567</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5240063734820666</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.314836700904365</v>
+        <v>1.386483305213559</v>
       </c>
       <c r="L22">
-        <v>1.161496349815408</v>
+        <v>0.2361116544037145</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8710227222901921</v>
+      </c>
+      <c r="N22">
+        <v>1.597742912848005</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.370666651710906</v>
+        <v>5.301311934969078</v>
       </c>
       <c r="C23">
-        <v>1.179435955635938</v>
+        <v>0.8861286371592882</v>
       </c>
       <c r="D23">
-        <v>0.01459882411655489</v>
+        <v>0.053813370691568</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.265058801909788</v>
+        <v>3.522771397776467</v>
       </c>
       <c r="G23">
-        <v>0.0007376552676217432</v>
+        <v>0.0007645260537319082</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.155352784966595</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5008602200493684</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.259697840569729</v>
+        <v>1.329486163207221</v>
       </c>
       <c r="L23">
-        <v>1.110820080803265</v>
+        <v>0.228607989512156</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8368964328157418</v>
+      </c>
+      <c r="N23">
+        <v>1.593786167706327</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.670551119276979</v>
+        <v>4.482207377853854</v>
       </c>
       <c r="C24">
-        <v>0.9872510510044776</v>
+        <v>0.7484431339366324</v>
       </c>
       <c r="D24">
-        <v>0.01543858206110826</v>
+        <v>0.05570398386846165</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.637154224564398</v>
+        <v>3.064397032667927</v>
       </c>
       <c r="G24">
-        <v>0.0007536390291387946</v>
+        <v>0.000779439936520907</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.864432977120543</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4169048149403096</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.056954415604864</v>
+        <v>1.119366221083183</v>
       </c>
       <c r="L24">
-        <v>0.925980625682115</v>
+        <v>0.2011140012614874</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7112592255765904</v>
+      </c>
+      <c r="N24">
+        <v>1.585845892741887</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.948341734745725</v>
+        <v>3.637370831830879</v>
       </c>
       <c r="C25">
-        <v>0.7901484111889374</v>
+        <v>0.6057626232770019</v>
       </c>
       <c r="D25">
-        <v>0.01628306706041549</v>
+        <v>0.0582019706788266</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.008001659575143</v>
+        <v>2.603417010962971</v>
       </c>
       <c r="G25">
-        <v>0.0007710147854699528</v>
+        <v>0.0007958156574885664</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.575777195485628</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3323737946489302</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8481343048411105</v>
+        <v>0.9023381763788336</v>
       </c>
       <c r="L25">
-        <v>0.7380817919462501</v>
+        <v>0.1730868565185943</v>
       </c>
       <c r="M25">
+        <v>0.5818899177890842</v>
+      </c>
+      <c r="N25">
+        <v>1.590007904555392</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.039776690184738</v>
+        <v>2.412968335054813</v>
       </c>
       <c r="C2">
-        <v>0.5041496970603134</v>
+        <v>0.3331622198673472</v>
       </c>
       <c r="D2">
-        <v>0.06036381567848181</v>
+        <v>0.05359180962399535</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.285960577054496</v>
+        <v>0.3895649596449076</v>
       </c>
       <c r="G2">
-        <v>0.000808222967139919</v>
+        <v>0.2838759924503407</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.216362403064764</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1921717319675587</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7485283832155147</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1535503602822175</v>
+        <v>0.4103756091552668</v>
       </c>
       <c r="M2">
-        <v>0.4905753327826545</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.602054810808426</v>
+        <v>0.7325437270544342</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.005840314949751</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.646322401848067</v>
+        <v>2.100353478122315</v>
       </c>
       <c r="C3">
-        <v>0.4367758055827267</v>
+        <v>0.3115285345971159</v>
       </c>
       <c r="D3">
-        <v>0.06200105227180686</v>
+        <v>0.04710189773379625</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.081655562374877</v>
+        <v>0.3550835638297087</v>
       </c>
       <c r="G3">
-        <v>0.0008168929423446049</v>
+        <v>0.257919752770583</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2092850144027736</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1917358847848725</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6470645350297346</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1408680360347674</v>
+        <v>0.3617420457065492</v>
       </c>
       <c r="M3">
-        <v>0.4305785492119654</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.615000429885427</v>
+        <v>0.7309430965443298</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9356638411229596</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.409364677919655</v>
+        <v>1.908363386851221</v>
       </c>
       <c r="C4">
-        <v>0.395955435709368</v>
+        <v>0.2982283987483925</v>
       </c>
       <c r="D4">
-        <v>0.06308309239783938</v>
+        <v>0.04310823700011213</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.96073465090501</v>
+        <v>0.3346306178644411</v>
       </c>
       <c r="G4">
-        <v>0.000822357796973594</v>
+        <v>0.2426214744403694</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2053591454005002</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1920481945432577</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5858582251693107</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1333189678697906</v>
+        <v>0.3322658586878333</v>
       </c>
       <c r="M4">
-        <v>0.3945075313430806</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.625071358280408</v>
+        <v>0.7307713429660794</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8947991735415286</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.31382238956752</v>
+        <v>1.830098250661251</v>
       </c>
       <c r="C5">
-        <v>0.3794334391562302</v>
+        <v>0.2928040656945967</v>
       </c>
       <c r="D5">
-        <v>0.06354225306859718</v>
+        <v>0.04147830981964518</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.912485214039492</v>
+        <v>0.3264653209924688</v>
       </c>
       <c r="G5">
-        <v>0.0008246220236365797</v>
+        <v>0.2365373289636139</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2038600885119521</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.192314687993953</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5611540829022914</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.130297485395765</v>
+        <v>0.3203425560784154</v>
       </c>
       <c r="M5">
-        <v>0.3799792380894331</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.629677071372228</v>
+        <v>0.7308988088653905</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8786731722891261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.29801530889273</v>
+        <v>1.81710024776325</v>
       </c>
       <c r="C6">
-        <v>0.3766960866246336</v>
+        <v>0.2919030886893239</v>
       </c>
       <c r="D6">
-        <v>0.06361956721045914</v>
+        <v>0.04120750471469847</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.90453239012615</v>
+        <v>0.3251193926833338</v>
       </c>
       <c r="G6">
-        <v>0.0008250002935794038</v>
+        <v>0.2355358200860636</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.203617121981118</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1923671599805097</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5570653291142023</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1297989429091899</v>
+        <v>0.3183678086663662</v>
       </c>
       <c r="M6">
-        <v>0.3775765416773709</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.630471267197294</v>
+        <v>0.7309317169512539</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8760263475470822</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.408072212031072</v>
+        <v>1.907308009022898</v>
       </c>
       <c r="C7">
-        <v>0.3957321897267718</v>
+        <v>0.2981552623650714</v>
       </c>
       <c r="D7">
-        <v>0.06308921237699394</v>
+        <v>0.0430862655969122</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.960079924038183</v>
+        <v>0.3345198263144695</v>
       </c>
       <c r="G7">
-        <v>0.0008223881801894091</v>
+        <v>0.2425388278025693</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.20533852673789</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1920512333765387</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5855241396225281</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.133278003447785</v>
+        <v>0.3321047093272682</v>
       </c>
       <c r="M7">
-        <v>0.3943109333231263</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.62513148128663</v>
+        <v>0.7307722708510482</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8945796021173749</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.903063729378687</v>
+        <v>2.30517723859117</v>
       </c>
       <c r="C8">
-        <v>0.4807897614872445</v>
+        <v>0.3257063349358162</v>
       </c>
       <c r="D8">
-        <v>0.06091171320202804</v>
+        <v>0.05135575901461209</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.214507832104999</v>
+        <v>0.3775196331425761</v>
       </c>
       <c r="G8">
-        <v>0.0008111840723191739</v>
+        <v>0.2747871074025667</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2138320802070695</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.191897030725837</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7132935809732999</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.149124968926813</v>
+        <v>0.3935216963189845</v>
       </c>
       <c r="M8">
-        <v>0.4697153618513354</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.606057888162027</v>
+        <v>0.7318194914678315</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.981161825145648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.917616036628999</v>
+        <v>3.085898382562789</v>
       </c>
       <c r="C9">
-        <v>0.6531940350748471</v>
+        <v>0.3796110884628092</v>
       </c>
       <c r="D9">
-        <v>0.0573060913736434</v>
+        <v>0.06751522680982447</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.754870878211904</v>
+        <v>0.4680829098187544</v>
       </c>
       <c r="G9">
-        <v>0.0007902513563791621</v>
+        <v>0.3436017367774582</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2340442424676752</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1965074421907467</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9743745502383518</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1823384353593553</v>
+        <v>0.5174159471363566</v>
       </c>
       <c r="M9">
-        <v>0.6247734517940557</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.587090671959643</v>
+        <v>0.7406179668622599</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.170142832982606</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.701022420028494</v>
+        <v>3.661108316574882</v>
       </c>
       <c r="C10">
-        <v>0.7852716582513608</v>
+        <v>0.4191637004855977</v>
       </c>
       <c r="D10">
-        <v>0.05515085941750542</v>
+        <v>0.07937311500341337</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.18582013363428</v>
+        <v>0.5392149681244831</v>
       </c>
       <c r="G10">
-        <v>0.0007753745512199331</v>
+        <v>0.3983024537694746</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2513946366768351</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2033436426391901</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.175520378945151</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2084325368238353</v>
+        <v>0.6111429724218311</v>
       </c>
       <c r="M10">
-        <v>0.7448052647418848</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.586895884928012</v>
+        <v>0.7516499592731236</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.322961115244681</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.068583905137359</v>
+        <v>3.923452772356654</v>
       </c>
       <c r="C11">
-        <v>0.847053391885737</v>
+        <v>0.4371525315189899</v>
       </c>
       <c r="D11">
-        <v>0.05430149679230922</v>
+        <v>0.08476925457267726</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.391491039268999</v>
+        <v>0.5727585789464555</v>
       </c>
       <c r="G11">
-        <v>0.0007686823106237192</v>
+        <v>0.4242617930398751</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.259909086919123</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2073089029314765</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.269807873578799</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.220770434171726</v>
+        <v>0.6545092825009391</v>
       </c>
       <c r="M11">
-        <v>0.8011835489328689</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.590441390510037</v>
+        <v>0.7577681437869046</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.396051722231448</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.20965955538918</v>
+        <v>4.022920556718191</v>
       </c>
       <c r="C12">
-        <v>0.87074355215438</v>
+        <v>0.4439644041901829</v>
       </c>
       <c r="D12">
-        <v>0.05400111228671989</v>
+        <v>0.08681331069108467</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.470975747535022</v>
+        <v>0.585647506676537</v>
       </c>
       <c r="G12">
-        <v>0.0007661557522928942</v>
+        <v>0.4342620834608084</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2632296264432767</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2089428903505315</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.305985589306729</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2255192193319004</v>
+        <v>0.6710482190213867</v>
       </c>
       <c r="M12">
-        <v>0.8228307172844112</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.592370011980989</v>
+        <v>0.7602526164210417</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.424290366560228</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.179187552556527</v>
+        <v>4.001492454821289</v>
       </c>
       <c r="C13">
-        <v>0.8656274609719219</v>
+        <v>0.4424973424656571</v>
       </c>
       <c r="D13">
-        <v>0.0540648178365295</v>
+        <v>0.08637305120725358</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.453782287206735</v>
+        <v>0.5828630726523727</v>
       </c>
       <c r="G13">
-        <v>0.0007666996068667146</v>
+        <v>0.432100523656672</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2625100910457689</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2085849359461953</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.298171766310944</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2244929089504666</v>
+        <v>0.6674808546901545</v>
       </c>
       <c r="M13">
-        <v>0.8181546200717165</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.591927479880297</v>
+        <v>0.7597099267499345</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.418182945169519</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.080150705713265</v>
+        <v>3.931633412719066</v>
       </c>
       <c r="C14">
-        <v>0.8489961732661584</v>
+        <v>0.4377129477342407</v>
       </c>
       <c r="D14">
-        <v>0.05427634291695682</v>
+        <v>0.08493740491477553</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.397996846986587</v>
+        <v>0.5738151205102611</v>
       </c>
       <c r="G14">
-        <v>0.0007684743155545935</v>
+        <v>0.4250810233330355</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2601802985231387</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2074406219764455</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.272774303084873</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2211595240762136</v>
+        <v>0.6558675322356891</v>
       </c>
       <c r="M14">
-        <v>0.802958238493872</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.590587919700454</v>
+        <v>0.7579691263134407</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.398363412609058</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.019742609713546</v>
+        <v>3.888859640101145</v>
       </c>
       <c r="C15">
-        <v>0.8388490365040582</v>
+        <v>0.4347823682504099</v>
       </c>
       <c r="D15">
-        <v>0.05440875358807773</v>
+        <v>0.08405812707533045</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.364042172273997</v>
+        <v>0.5682978008570245</v>
       </c>
       <c r="G15">
-        <v>0.0007695622702674872</v>
+        <v>0.4208039952930562</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2587659872483101</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2067572321824187</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.257281558028211</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2191280183497923</v>
+        <v>0.6487696558062623</v>
       </c>
       <c r="M15">
-        <v>0.7936901800433134</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.589845750345205</v>
+        <v>0.7569249610507427</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.386297859483449</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.677249554919285</v>
+        <v>3.643979326454314</v>
       </c>
       <c r="C16">
-        <v>0.7812724159311415</v>
+        <v>0.4179880472320576</v>
       </c>
       <c r="D16">
-        <v>0.05520920146518904</v>
+        <v>0.07902053512594875</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.172590709633056</v>
+        <v>0.5370480310849217</v>
       </c>
       <c r="G16">
-        <v>0.0007758131575516591</v>
+        <v>0.3966288874127599</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2508512873380226</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2031025093489198</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.169420497330449</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2076364161979711</v>
+        <v>0.6083245818508374</v>
       </c>
       <c r="M16">
-        <v>0.7411600525425754</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.586742531798407</v>
+        <v>0.7512730501664322</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.318260320691763</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.470193576523513</v>
+        <v>3.493944907025877</v>
       </c>
       <c r="C17">
-        <v>0.7464198818722139</v>
+        <v>0.4076845857701414</v>
       </c>
       <c r="D17">
-        <v>0.05573541230204526</v>
+        <v>0.07593089045393242</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.057753198052183</v>
+        <v>0.5181921332900998</v>
       </c>
       <c r="G17">
-        <v>0.0007796650242112427</v>
+        <v>0.382084387241548</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2461598770581048</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2010860774873287</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.11628257036152</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2007128064867345</v>
+        <v>0.5837080697854446</v>
       </c>
       <c r="M17">
-        <v>0.7094178180767798</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.585812060984765</v>
+        <v>0.7480940292972633</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.277469125420424</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.352134545730792</v>
+        <v>3.40771127282818</v>
       </c>
       <c r="C18">
-        <v>0.7265301318769843</v>
+        <v>0.4017579141246301</v>
       </c>
       <c r="D18">
-        <v>0.05605024655214663</v>
+        <v>0.07415396583401446</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.99259353304123</v>
+        <v>0.5074572526640395</v>
       </c>
       <c r="G18">
-        <v>0.0007818878160187285</v>
+        <v>0.3738190503358965</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2435195775923376</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2000062005099821</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.085976318424386</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1967739065835943</v>
+        <v>0.5696171850472496</v>
       </c>
       <c r="M18">
-        <v>0.691324752334971</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.585614666543862</v>
+        <v>0.7463684436218898</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.254340409485877</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.312331472049152</v>
+        <v>3.378523966155285</v>
       </c>
       <c r="C19">
-        <v>0.7198212605788115</v>
+        <v>0.399751164900195</v>
       </c>
       <c r="D19">
-        <v>0.05615886735297693</v>
+        <v>0.07355234557964252</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.970678623210858</v>
+        <v>0.5038411119864818</v>
       </c>
       <c r="G19">
-        <v>0.0007826417591784152</v>
+        <v>0.3710373190684209</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2426353887504007</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1996540214958991</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.075757275618201</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1954474437126876</v>
+        <v>0.5648575544573617</v>
       </c>
       <c r="M19">
-        <v>0.6852257475631234</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.585604053314128</v>
+        <v>0.745801583070218</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.246565282822502</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.492126107705587</v>
+        <v>3.509909707614554</v>
       </c>
       <c r="C20">
-        <v>0.7501134529257172</v>
+        <v>0.4087814444975493</v>
       </c>
       <c r="D20">
-        <v>0.05567812032966302</v>
+        <v>0.07625976946523139</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.06988406754661</v>
+        <v>0.5201878215675961</v>
       </c>
       <c r="G20">
-        <v>0.0007792542526433182</v>
+        <v>0.3836221878168544</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.24665322644627</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2012923921342811</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.12191207147778</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2014452824393373</v>
+        <v>0.5863214283798186</v>
       </c>
       <c r="M20">
-        <v>0.7127795449523688</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.585875719410666</v>
+        <v>0.7484217243263487</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.281776591059639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.10918656758372</v>
+        <v>3.952149133891282</v>
       </c>
       <c r="C21">
-        <v>0.8538727476466192</v>
+        <v>0.4391182394580539</v>
       </c>
       <c r="D21">
-        <v>0.05421361503037403</v>
+        <v>0.08535906811347616</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.414337039332224</v>
+        <v>0.5764675220677091</v>
       </c>
       <c r="G21">
-        <v>0.0007679528604725927</v>
+        <v>0.4271380782193717</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2608619442008262</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2077730627089558</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.280220685824261</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2221364572273359</v>
+        <v>0.6592753687336028</v>
       </c>
       <c r="M21">
-        <v>0.8074133295606885</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.590964926970059</v>
+        <v>0.7584758129017075</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.404169279343705</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.523635130973958</v>
+        <v>4.241912334888411</v>
       </c>
       <c r="C22">
-        <v>0.9234324460465473</v>
+        <v>0.4589447200914094</v>
       </c>
       <c r="D22">
-        <v>0.05338175416975943</v>
+        <v>0.09130999819009133</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.648915514865678</v>
+        <v>0.6143460251284552</v>
       </c>
       <c r="G22">
-        <v>0.0007606095289691037</v>
+        <v>0.4565772728061717</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2707130151005543</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2127852479432519</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.386483305213559</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2361116544037145</v>
+        <v>0.7076435113719128</v>
       </c>
       <c r="M22">
-        <v>0.8710227222901921</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.597742912848005</v>
+        <v>0.7660287693800711</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.487452895881432</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.301311934969078</v>
+        <v>4.087183949640234</v>
       </c>
       <c r="C23">
-        <v>0.8861286371592882</v>
+        <v>0.448362822620453</v>
       </c>
       <c r="D23">
-        <v>0.053813370691568</v>
+        <v>0.08813337620237149</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.522771397776467</v>
+        <v>0.5940235885238465</v>
       </c>
       <c r="G23">
-        <v>0.0007645260537319082</v>
+        <v>0.4407682705612785</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2654012294773196</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2100358186529689</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.329486163207221</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.228607989512156</v>
+        <v>0.6817612911583382</v>
       </c>
       <c r="M23">
-        <v>0.8368964328157418</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.593786167706327</v>
+        <v>0.7619044600642013</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.442685215307165</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.482207377853854</v>
+        <v>3.502691951100132</v>
       </c>
       <c r="C24">
-        <v>0.7484431339366324</v>
+        <v>0.4082855642757863</v>
       </c>
       <c r="D24">
-        <v>0.05570398386846165</v>
+        <v>0.07611108530717559</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.064397032667927</v>
+        <v>0.5192852431120301</v>
       </c>
       <c r="G24">
-        <v>0.000779439936520907</v>
+        <v>0.3829266487825436</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2464300066149434</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.201198870685424</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.119366221083183</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2011140012614874</v>
+        <v>0.585139738385891</v>
       </c>
       <c r="M24">
-        <v>0.7112592255765904</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.585845892741887</v>
+        <v>0.7482732561734622</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.279828184273555</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.637370831830879</v>
+        <v>2.874509344281478</v>
       </c>
       <c r="C25">
-        <v>0.6057626232770019</v>
+        <v>0.3650393239213656</v>
       </c>
       <c r="D25">
-        <v>0.0582019706788266</v>
+        <v>0.06314774082409969</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.603417010962971</v>
+        <v>0.4428360872629824</v>
       </c>
       <c r="G25">
-        <v>0.0007958156574885664</v>
+        <v>0.3243144412034127</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.228162423275748</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1946888963910567</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9023381763788336</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1730868565185943</v>
+        <v>0.4834699793252213</v>
       </c>
       <c r="M25">
-        <v>0.5818899177890842</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.590007904555392</v>
+        <v>0.7374702526714287</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.116736874145857</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.412968335054813</v>
+        <v>0.8829944718210641</v>
       </c>
       <c r="C2">
-        <v>0.3331622198673472</v>
+        <v>0.286624857758909</v>
       </c>
       <c r="D2">
-        <v>0.05359180962399535</v>
+        <v>0.01874274972951895</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3895649596449076</v>
+        <v>0.459694673470004</v>
       </c>
       <c r="G2">
-        <v>0.2838759924503407</v>
+        <v>0.3054199823651373</v>
       </c>
       <c r="H2">
-        <v>0.216362403064764</v>
+        <v>0.4648416140178</v>
       </c>
       <c r="I2">
-        <v>0.1921717319675587</v>
+        <v>0.443739043181381</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4103756091552668</v>
+        <v>0.2998398206338777</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7325437270544342</v>
+        <v>0.982931259631016</v>
       </c>
       <c r="O2">
-        <v>1.005840314949751</v>
+        <v>1.468480130993214</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.100353478122315</v>
+        <v>0.7867093547473019</v>
       </c>
       <c r="C3">
-        <v>0.3115285345971159</v>
+        <v>0.2794896162457832</v>
       </c>
       <c r="D3">
-        <v>0.04710189773379625</v>
+        <v>0.01662317875314301</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3550835638297087</v>
+        <v>0.4549278335721496</v>
       </c>
       <c r="G3">
-        <v>0.257919752770583</v>
+        <v>0.3019755812360785</v>
       </c>
       <c r="H3">
-        <v>0.2092850144027736</v>
+        <v>0.4667210908874182</v>
       </c>
       <c r="I3">
-        <v>0.1917358847848725</v>
+        <v>0.448295327536016</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3617420457065492</v>
+        <v>0.2882069792364632</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7309430965443298</v>
+        <v>0.9848650303441602</v>
       </c>
       <c r="O3">
-        <v>0.9356638411229596</v>
+        <v>1.464857129094469</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908363386851221</v>
+        <v>0.7275367405246413</v>
       </c>
       <c r="C4">
-        <v>0.2982283987483925</v>
+        <v>0.2751015698018762</v>
       </c>
       <c r="D4">
-        <v>0.04310823700011213</v>
+        <v>0.015314309747815</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3346306178644411</v>
+        <v>0.4523365957836276</v>
       </c>
       <c r="G4">
-        <v>0.2426214744403694</v>
+        <v>0.3001249915484578</v>
       </c>
       <c r="H4">
-        <v>0.2053591454005002</v>
+        <v>0.4681185003265753</v>
       </c>
       <c r="I4">
-        <v>0.1920481945432577</v>
+        <v>0.4513918033336815</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3322658586878333</v>
+        <v>0.2812338264995304</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7307713429660794</v>
+        <v>0.9864337865403883</v>
       </c>
       <c r="O4">
-        <v>0.8947991735415286</v>
+        <v>1.463693244482101</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.830098250661251</v>
+        <v>0.7034118145008961</v>
       </c>
       <c r="C5">
-        <v>0.2928040656945967</v>
+        <v>0.2733118480901169</v>
       </c>
       <c r="D5">
-        <v>0.04147830981964518</v>
+        <v>0.01477909462916926</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3264653209924688</v>
+        <v>0.4513650190952987</v>
       </c>
       <c r="G5">
-        <v>0.2365373289636139</v>
+        <v>0.2994372104550607</v>
       </c>
       <c r="H5">
-        <v>0.2038600885119521</v>
+        <v>0.4687491895338098</v>
       </c>
       <c r="I5">
-        <v>0.192314687993953</v>
+        <v>0.4527287319770963</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3203425560784154</v>
+        <v>0.2784349095351786</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7308988088653905</v>
+        <v>0.9871691956531521</v>
       </c>
       <c r="O5">
-        <v>0.8786731722891261</v>
+        <v>1.463485485407787</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.81710024776325</v>
+        <v>0.6994052399025747</v>
       </c>
       <c r="C6">
-        <v>0.2919030886893239</v>
+        <v>0.273014577941737</v>
       </c>
       <c r="D6">
-        <v>0.04120750471469847</v>
+        <v>0.01469011233655237</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3251193926833338</v>
+        <v>0.4512087848754476</v>
       </c>
       <c r="G6">
-        <v>0.2355358200860636</v>
+        <v>0.2993270090910656</v>
       </c>
       <c r="H6">
-        <v>0.203617121981118</v>
+        <v>0.4688576141706378</v>
       </c>
       <c r="I6">
-        <v>0.1923671599805097</v>
+        <v>0.4529552611050747</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3183678086663662</v>
+        <v>0.2779727330241428</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7309317169512539</v>
+        <v>0.9872971221976172</v>
       </c>
       <c r="O6">
-        <v>0.8760263475470822</v>
+        <v>1.46346707994698</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907308009022898</v>
+        <v>0.7272114279873847</v>
       </c>
       <c r="C7">
-        <v>0.2981552623650714</v>
+        <v>0.2750774390315485</v>
       </c>
       <c r="D7">
-        <v>0.0430862655969122</v>
+        <v>0.01530709905913596</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3345198263144695</v>
+        <v>0.452323151162858</v>
       </c>
       <c r="G7">
-        <v>0.2425388278025693</v>
+        <v>0.3001154473897714</v>
       </c>
       <c r="H7">
-        <v>0.20533852673789</v>
+        <v>0.4681267580534225</v>
       </c>
       <c r="I7">
-        <v>0.1920512333765387</v>
+        <v>0.4514095296801521</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3321047093272682</v>
+        <v>0.2811959063218836</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7307722708510482</v>
+        <v>0.9864433150124512</v>
       </c>
       <c r="O7">
-        <v>0.8945796021173749</v>
+        <v>1.463689363623146</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.30517723859117</v>
+        <v>0.8498074249825436</v>
       </c>
       <c r="C8">
-        <v>0.3257063349358162</v>
+        <v>0.2841661913589633</v>
       </c>
       <c r="D8">
-        <v>0.05135575901461209</v>
+        <v>0.01801348490715782</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3775196331425761</v>
+        <v>0.4579813935825428</v>
       </c>
       <c r="G8">
-        <v>0.2747871074025667</v>
+        <v>0.3041774335312581</v>
       </c>
       <c r="H8">
-        <v>0.2138320802070695</v>
+        <v>0.4654391553667452</v>
       </c>
       <c r="I8">
-        <v>0.191897030725837</v>
+        <v>0.4452479709922024</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3935216963189845</v>
+        <v>0.2957936940852619</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7318194914678315</v>
+        <v>0.9835189898908041</v>
       </c>
       <c r="O8">
-        <v>0.981161825145648</v>
+        <v>1.467010669792714</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.085898382562789</v>
+        <v>1.089730026220195</v>
       </c>
       <c r="C9">
-        <v>0.3796110884628092</v>
+        <v>0.3019259851008371</v>
       </c>
       <c r="D9">
-        <v>0.06751522680982447</v>
+        <v>0.02326048702741446</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4680829098187544</v>
+        <v>0.4717424715242657</v>
       </c>
       <c r="G9">
-        <v>0.3436017367774582</v>
+        <v>0.3142457565532482</v>
       </c>
       <c r="H9">
-        <v>0.2340442424676752</v>
+        <v>0.4620991977128313</v>
       </c>
       <c r="I9">
-        <v>0.1965074421907467</v>
+        <v>0.4355400877213462</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5174159471363566</v>
+        <v>0.32576244780401</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7406179668622599</v>
+        <v>0.9808019967161385</v>
       </c>
       <c r="O9">
-        <v>1.170142832982606</v>
+        <v>1.481950277817845</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.661108316574882</v>
+        <v>1.265632098115134</v>
       </c>
       <c r="C10">
-        <v>0.4191637004855977</v>
+        <v>0.3149262661827947</v>
       </c>
       <c r="D10">
-        <v>0.07937311500341337</v>
+        <v>0.02707755183251948</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5392149681244831</v>
+        <v>0.48348263877417</v>
       </c>
       <c r="G10">
-        <v>0.3983024537694746</v>
+        <v>0.3229342021733714</v>
       </c>
       <c r="H10">
-        <v>0.2513946366768351</v>
+        <v>0.4608215199038455</v>
       </c>
       <c r="I10">
-        <v>0.2033436426391901</v>
+        <v>0.4298601937169302</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6111429724218311</v>
+        <v>0.3485988557300885</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7516499592731236</v>
+        <v>0.9806349535199956</v>
       </c>
       <c r="O10">
-        <v>1.322961115244681</v>
+        <v>1.498082287884984</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.923452772356654</v>
+        <v>1.34556019050126</v>
       </c>
       <c r="C11">
-        <v>0.4371525315189899</v>
+        <v>0.3208281525361656</v>
       </c>
       <c r="D11">
-        <v>0.08476925457267726</v>
+        <v>0.02880556607559726</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5727585789464555</v>
+        <v>0.4891786504845541</v>
       </c>
       <c r="G11">
-        <v>0.4242617930398751</v>
+        <v>0.3271692492411375</v>
       </c>
       <c r="H11">
-        <v>0.259909086919123</v>
+        <v>0.4604955695827755</v>
       </c>
       <c r="I11">
-        <v>0.2073089029314765</v>
+        <v>0.4275926698953363</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6545092825009391</v>
+        <v>0.3591655642312332</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7577681437869046</v>
+        <v>0.9809540769983585</v>
       </c>
       <c r="O11">
-        <v>1.396051722231448</v>
+        <v>1.506544962589004</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.022920556718191</v>
+        <v>1.37581227144625</v>
       </c>
       <c r="C12">
-        <v>0.4439644041901829</v>
+        <v>0.323061131909185</v>
       </c>
       <c r="D12">
-        <v>0.08681331069108467</v>
+        <v>0.02945868581318223</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.585647506676537</v>
+        <v>0.4913867333859159</v>
       </c>
       <c r="G12">
-        <v>0.4342620834608084</v>
+        <v>0.3288137286039046</v>
       </c>
       <c r="H12">
-        <v>0.2632296264432767</v>
+        <v>0.4604088316581567</v>
       </c>
       <c r="I12">
-        <v>0.2089428903505315</v>
+        <v>0.4267795816778985</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6710482190213867</v>
+        <v>0.3631924912723719</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7602526164210417</v>
+        <v>0.9811315561725849</v>
       </c>
       <c r="O12">
-        <v>1.424290366560228</v>
+        <v>1.509911466073646</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.001492454821289</v>
+        <v>1.369297640092555</v>
       </c>
       <c r="C13">
-        <v>0.4424973424656571</v>
+        <v>0.3225803093329205</v>
       </c>
       <c r="D13">
-        <v>0.08637305120725358</v>
+        <v>0.02931808058664842</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5828630726523727</v>
+        <v>0.4909089089198488</v>
       </c>
       <c r="G13">
-        <v>0.432100523656672</v>
+        <v>0.3284577459379108</v>
       </c>
       <c r="H13">
-        <v>0.2625100910457689</v>
+        <v>0.4604258805661345</v>
       </c>
       <c r="I13">
-        <v>0.2085849359461953</v>
+        <v>0.426952666407896</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6674808546901545</v>
+        <v>0.3623240859733414</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7597099267499345</v>
+        <v>0.9810908169048673</v>
       </c>
       <c r="O13">
-        <v>1.418182945169519</v>
+        <v>1.50917922651567</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.931633412719066</v>
+        <v>1.348049358067783</v>
       </c>
       <c r="C14">
-        <v>0.4377129477342407</v>
+        <v>0.3210119011126551</v>
       </c>
       <c r="D14">
-        <v>0.08493740491477553</v>
+        <v>0.02885932371967925</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5738151205102611</v>
+        <v>0.4893592859818838</v>
       </c>
       <c r="G14">
-        <v>0.4250810233330355</v>
+        <v>0.3273037240131487</v>
       </c>
       <c r="H14">
-        <v>0.2601802985231387</v>
+        <v>0.4604876983204349</v>
       </c>
       <c r="I14">
-        <v>0.2074406219764455</v>
+        <v>0.4275248627463668</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6558675322356891</v>
+        <v>0.3594963505663173</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7579691263134407</v>
+        <v>0.9809675443171244</v>
       </c>
       <c r="O14">
-        <v>1.398363412609058</v>
+        <v>1.506818681440365</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.888859640101145</v>
+        <v>1.335032167580209</v>
       </c>
       <c r="C15">
-        <v>0.4347823682504099</v>
+        <v>0.3200509473201691</v>
       </c>
       <c r="D15">
-        <v>0.08405812707533045</v>
+        <v>0.02857815912122419</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5682978008570245</v>
+        <v>0.4884167562126294</v>
       </c>
       <c r="G15">
-        <v>0.4208039952930562</v>
+        <v>0.3266021637275287</v>
       </c>
       <c r="H15">
-        <v>0.2587659872483101</v>
+        <v>0.4605303414513031</v>
       </c>
       <c r="I15">
-        <v>0.2067572321824187</v>
+        <v>0.4278812873023661</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6487696558062623</v>
+        <v>0.3577676046411824</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7569249610507427</v>
+        <v>0.9808994063749594</v>
       </c>
       <c r="O15">
-        <v>1.386297859483449</v>
+        <v>1.505393866477618</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.643979326454314</v>
+        <v>1.260406621264337</v>
       </c>
       <c r="C16">
-        <v>0.4179880472320576</v>
+        <v>0.314540304423673</v>
       </c>
       <c r="D16">
-        <v>0.07902053512594875</v>
+        <v>0.02696445021431515</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5370480310849217</v>
+        <v>0.4831175440056086</v>
       </c>
       <c r="G16">
-        <v>0.3966288874127599</v>
+        <v>0.322663129173975</v>
       </c>
       <c r="H16">
-        <v>0.2508512873380226</v>
+        <v>0.4608479569348134</v>
       </c>
       <c r="I16">
-        <v>0.2031025093489198</v>
+        <v>0.4300147541390729</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6083245818508374</v>
+        <v>0.3479118762905813</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7512730501664322</v>
+        <v>0.9806220330088422</v>
       </c>
       <c r="O16">
-        <v>1.318260320691763</v>
+        <v>1.49755187188174</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.493944907025877</v>
+        <v>1.214601683914964</v>
       </c>
       <c r="C17">
-        <v>0.4076845857701414</v>
+        <v>0.3111564783728795</v>
       </c>
       <c r="D17">
-        <v>0.07593089045393242</v>
+        <v>0.0259723184647811</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5181921332900998</v>
+        <v>0.4799576832514418</v>
       </c>
       <c r="G17">
-        <v>0.382084387241548</v>
+        <v>0.3203191312111358</v>
       </c>
       <c r="H17">
-        <v>0.2461598770581048</v>
+        <v>0.4611081740975465</v>
       </c>
       <c r="I17">
-        <v>0.2010860774873287</v>
+        <v>0.4314046416370374</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5837080697854446</v>
+        <v>0.3419113073623095</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7480940292972633</v>
+        <v>0.9805529398458646</v>
       </c>
       <c r="O17">
-        <v>1.277469125420424</v>
+        <v>1.493029141338752</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.40771127282818</v>
+        <v>1.188247478258916</v>
       </c>
       <c r="C18">
-        <v>0.4017579141246301</v>
+        <v>0.3092090735230215</v>
       </c>
       <c r="D18">
-        <v>0.07415396583401446</v>
+        <v>0.02540088316975186</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5074572526640395</v>
+        <v>0.4781736606676503</v>
       </c>
       <c r="G18">
-        <v>0.3738190503358965</v>
+        <v>0.3189975211220002</v>
       </c>
       <c r="H18">
-        <v>0.2435195775923376</v>
+        <v>0.4612818724427541</v>
       </c>
       <c r="I18">
-        <v>0.2000062005099821</v>
+        <v>0.432233833275351</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5696171850472496</v>
+        <v>0.3384767282769303</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7463684436218898</v>
+        <v>0.9805503997599345</v>
       </c>
       <c r="O18">
-        <v>1.254340409485877</v>
+        <v>1.490533582962058</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.378523966155285</v>
+        <v>1.179323009905318</v>
       </c>
       <c r="C19">
-        <v>0.399751164900195</v>
+        <v>0.3085495301734227</v>
       </c>
       <c r="D19">
-        <v>0.07355234557964252</v>
+        <v>0.02520727085275354</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5038411119864818</v>
+        <v>0.4775753647335108</v>
       </c>
       <c r="G19">
-        <v>0.3710373190684209</v>
+        <v>0.3185546108656183</v>
       </c>
       <c r="H19">
-        <v>0.2426353887504007</v>
+        <v>0.4613448110697078</v>
       </c>
       <c r="I19">
-        <v>0.1996540214958991</v>
+        <v>0.432519692691077</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5648575544573617</v>
+        <v>0.3373167253602247</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.745801583070218</v>
+        <v>0.9805559345844586</v>
       </c>
       <c r="O19">
-        <v>1.246565282822502</v>
+        <v>1.489706793613465</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.509909707614554</v>
+        <v>1.219478582744955</v>
       </c>
       <c r="C20">
-        <v>0.4087814444975493</v>
+        <v>0.3115168096265677</v>
       </c>
       <c r="D20">
-        <v>0.07625976946523139</v>
+        <v>0.02607801432916546</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5201878215675961</v>
+        <v>0.48029059410581</v>
       </c>
       <c r="G20">
-        <v>0.3836221878168544</v>
+        <v>0.3205659004026273</v>
       </c>
       <c r="H20">
-        <v>0.24665322644627</v>
+        <v>0.461077986806302</v>
       </c>
       <c r="I20">
-        <v>0.2012923921342811</v>
+        <v>0.431253604494426</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5863214283798186</v>
+        <v>0.3425483412245285</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7484217243263487</v>
+        <v>0.9805564461577205</v>
       </c>
       <c r="O20">
-        <v>1.281776591059639</v>
+        <v>1.493499642551598</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.952149133891282</v>
+        <v>1.354290914661021</v>
       </c>
       <c r="C21">
-        <v>0.4391182394580539</v>
+        <v>0.3214726348669785</v>
       </c>
       <c r="D21">
-        <v>0.08535906811347616</v>
+        <v>0.02899410571759375</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5764675220677091</v>
+        <v>0.4898130600205306</v>
       </c>
       <c r="G21">
-        <v>0.4271380782193717</v>
+        <v>0.327641581115472</v>
       </c>
       <c r="H21">
-        <v>0.2608619442008262</v>
+        <v>0.4604685452503361</v>
       </c>
       <c r="I21">
-        <v>0.2077730627089558</v>
+        <v>0.4273555572211194</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6592753687336028</v>
+        <v>0.3603262325277967</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7584758129017075</v>
+        <v>0.9810022168668695</v>
       </c>
       <c r="O21">
-        <v>1.404169279343705</v>
+        <v>1.50750763583676</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.241912334888411</v>
+        <v>1.442310521034472</v>
       </c>
       <c r="C22">
-        <v>0.4589447200914094</v>
+        <v>0.3279679553783126</v>
       </c>
       <c r="D22">
-        <v>0.09130999819009133</v>
+        <v>0.03089268554126789</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6143460251284552</v>
+        <v>0.4963345601698279</v>
       </c>
       <c r="G22">
-        <v>0.4565772728061717</v>
+        <v>0.3325035749329999</v>
       </c>
       <c r="H22">
-        <v>0.2707130151005543</v>
+        <v>0.460284103968462</v>
       </c>
       <c r="I22">
-        <v>0.2127852479432519</v>
+        <v>0.4250736394041823</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7076435113719128</v>
+        <v>0.3720939554473688</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7660287693800711</v>
+        <v>0.9816235785979188</v>
       </c>
       <c r="O22">
-        <v>1.487452895881432</v>
+        <v>1.517606284361477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.087183949640234</v>
+        <v>1.395341490002579</v>
       </c>
       <c r="C23">
-        <v>0.448362822620453</v>
+        <v>0.3245023917727963</v>
       </c>
       <c r="D23">
-        <v>0.08813337620237149</v>
+        <v>0.02988005333090626</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5940235885238465</v>
+        <v>0.4928266354044055</v>
       </c>
       <c r="G23">
-        <v>0.4407682705612785</v>
+        <v>0.3298868561617923</v>
       </c>
       <c r="H23">
-        <v>0.2654012294773196</v>
+        <v>0.4603629803261811</v>
       </c>
       <c r="I23">
-        <v>0.2100358186529689</v>
+        <v>0.4262672018178684</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6817612911583382</v>
+        <v>0.3657997134959885</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7619044600642013</v>
+        <v>0.9812618080850797</v>
       </c>
       <c r="O23">
-        <v>1.442685215307165</v>
+        <v>1.512130032557451</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.502691951100132</v>
+        <v>1.217273799984525</v>
       </c>
       <c r="C24">
-        <v>0.4082855642757863</v>
+        <v>0.3113539100750984</v>
       </c>
       <c r="D24">
-        <v>0.07611108530717559</v>
+        <v>0.02603023248356351</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5192852431120301</v>
+        <v>0.4801399834917746</v>
       </c>
       <c r="G24">
-        <v>0.3829266487825436</v>
+        <v>0.3204542551174399</v>
       </c>
       <c r="H24">
-        <v>0.2464300066149434</v>
+        <v>0.4610915594217602</v>
       </c>
       <c r="I24">
-        <v>0.201198870685424</v>
+        <v>0.431321794550783</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.585139738385891</v>
+        <v>0.3422602907764798</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7482732561734622</v>
+        <v>0.9805547451189653</v>
       </c>
       <c r="O24">
-        <v>1.279828184273555</v>
+        <v>1.49328660308791</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.874509344281478</v>
+        <v>1.024884249432716</v>
       </c>
       <c r="C25">
-        <v>0.3650393239213656</v>
+        <v>0.2971292226984446</v>
       </c>
       <c r="D25">
-        <v>0.06314774082409969</v>
+        <v>0.0218476039027351</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4428360872629824</v>
+        <v>0.4677338676302867</v>
       </c>
       <c r="G25">
-        <v>0.3243144412034127</v>
+        <v>0.3112959201759935</v>
       </c>
       <c r="H25">
-        <v>0.228162423275748</v>
+        <v>0.462796146189703</v>
       </c>
       <c r="I25">
-        <v>0.1946888963910567</v>
+        <v>0.4379115911121083</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4834699793252213</v>
+        <v>0.3175113828869058</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7374702526714287</v>
+        <v>0.9812150612563499</v>
       </c>
       <c r="O25">
-        <v>1.116736874145857</v>
+        <v>1.47700463823233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8829944718210641</v>
+        <v>2.4129683350547</v>
       </c>
       <c r="C2">
-        <v>0.286624857758909</v>
+        <v>0.333162219867333</v>
       </c>
       <c r="D2">
-        <v>0.01874274972951895</v>
+        <v>0.05359180962392429</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.459694673470004</v>
+        <v>0.3895649596449076</v>
       </c>
       <c r="G2">
-        <v>0.3054199823651373</v>
+        <v>0.2838759924503975</v>
       </c>
       <c r="H2">
-        <v>0.4648416140178</v>
+        <v>0.216362403064764</v>
       </c>
       <c r="I2">
-        <v>0.443739043181381</v>
+        <v>0.1921717319675551</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2998398206338777</v>
+        <v>0.4103756091553237</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.982931259631016</v>
+        <v>0.7325437270544271</v>
       </c>
       <c r="O2">
-        <v>1.468480130993214</v>
+        <v>1.005840314949694</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7867093547473019</v>
+        <v>2.100353478122429</v>
       </c>
       <c r="C3">
-        <v>0.2794896162457832</v>
+        <v>0.3115285345973717</v>
       </c>
       <c r="D3">
-        <v>0.01662317875314301</v>
+        <v>0.04710189773389573</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4549278335721496</v>
+        <v>0.3550835638297087</v>
       </c>
       <c r="G3">
-        <v>0.3019755812360785</v>
+        <v>0.2579197527705901</v>
       </c>
       <c r="H3">
-        <v>0.4667210908874182</v>
+        <v>0.2092850144028873</v>
       </c>
       <c r="I3">
-        <v>0.448295327536016</v>
+        <v>0.1917358847848583</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2882069792364632</v>
+        <v>0.361742045706535</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9848650303441602</v>
+        <v>0.7309430965443227</v>
       </c>
       <c r="O3">
-        <v>1.464857129094469</v>
+        <v>0.9356638411229312</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7275367405246413</v>
+        <v>1.908363386851192</v>
       </c>
       <c r="C4">
-        <v>0.2751015698018762</v>
+        <v>0.2982283987484493</v>
       </c>
       <c r="D4">
-        <v>0.015314309747815</v>
+        <v>0.04310823700010502</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4523365957836276</v>
+        <v>0.3346306178644411</v>
       </c>
       <c r="G4">
-        <v>0.3001249915484578</v>
+        <v>0.2426214744404263</v>
       </c>
       <c r="H4">
-        <v>0.4681185003265753</v>
+        <v>0.205359145400493</v>
       </c>
       <c r="I4">
-        <v>0.4513918033336815</v>
+        <v>0.1920481945432897</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2812338264995304</v>
+        <v>0.3322658586877765</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9864337865403883</v>
+        <v>0.7307713429660865</v>
       </c>
       <c r="O4">
-        <v>1.463693244482101</v>
+        <v>0.8947991735415286</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7034118145008961</v>
+        <v>1.830098250661109</v>
       </c>
       <c r="C5">
-        <v>0.2733118480901169</v>
+        <v>0.2928040656945541</v>
       </c>
       <c r="D5">
-        <v>0.01477909462916926</v>
+        <v>0.04147830981957412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4513650190952987</v>
+        <v>0.3264653209924475</v>
       </c>
       <c r="G5">
-        <v>0.2994372104550607</v>
+        <v>0.23653732896355</v>
       </c>
       <c r="H5">
-        <v>0.4687491895338098</v>
+        <v>0.203860088511945</v>
       </c>
       <c r="I5">
-        <v>0.4527287319770963</v>
+        <v>0.1923146879939566</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2784349095351786</v>
+        <v>0.3203425560784154</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9871691956531521</v>
+        <v>0.7308988088654473</v>
       </c>
       <c r="O5">
-        <v>1.463485485407787</v>
+        <v>0.8786731722891261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6994052399025747</v>
+        <v>1.81710024776325</v>
       </c>
       <c r="C6">
-        <v>0.273014577941737</v>
+        <v>0.291903088689395</v>
       </c>
       <c r="D6">
-        <v>0.01469011233655237</v>
+        <v>0.04120750471468426</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4512087848754476</v>
+        <v>0.3251193926833196</v>
       </c>
       <c r="G6">
-        <v>0.2993270090910656</v>
+        <v>0.235535820086092</v>
       </c>
       <c r="H6">
-        <v>0.4688576141706378</v>
+        <v>0.2036171219811251</v>
       </c>
       <c r="I6">
-        <v>0.4529552611050747</v>
+        <v>0.1923671599805097</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2779727330241428</v>
+        <v>0.3183678086663946</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9872971221976172</v>
+        <v>0.730931716951261</v>
       </c>
       <c r="O6">
-        <v>1.46346707994698</v>
+        <v>0.8760263475470964</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7272114279873847</v>
+        <v>1.907308009023069</v>
       </c>
       <c r="C7">
-        <v>0.2750774390315485</v>
+        <v>0.298155262365313</v>
       </c>
       <c r="D7">
-        <v>0.01530709905913596</v>
+        <v>0.04308626559675588</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.452323151162858</v>
+        <v>0.3345198263144411</v>
       </c>
       <c r="G7">
-        <v>0.3001154473897714</v>
+        <v>0.2425388278026404</v>
       </c>
       <c r="H7">
-        <v>0.4681267580534225</v>
+        <v>0.2053385267379042</v>
       </c>
       <c r="I7">
-        <v>0.4514095296801521</v>
+        <v>0.1920512333765387</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2811959063218836</v>
+        <v>0.3321047093273819</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9864433150124512</v>
+        <v>0.7307722708510767</v>
       </c>
       <c r="O7">
-        <v>1.463689363623146</v>
+        <v>0.8945796021173749</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8498074249825436</v>
+        <v>2.305177238591</v>
       </c>
       <c r="C8">
-        <v>0.2841661913589633</v>
+        <v>0.3257063349360294</v>
       </c>
       <c r="D8">
-        <v>0.01801348490715782</v>
+        <v>0.0513557590144913</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4579813935825428</v>
+        <v>0.3775196331425619</v>
       </c>
       <c r="G8">
-        <v>0.3041774335312581</v>
+        <v>0.2747871074025667</v>
       </c>
       <c r="H8">
-        <v>0.4654391553667452</v>
+        <v>0.2138320802070623</v>
       </c>
       <c r="I8">
-        <v>0.4452479709922024</v>
+        <v>0.1918970307258263</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2957936940852619</v>
+        <v>0.3935216963189845</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9835189898908041</v>
+        <v>0.7318194914678244</v>
       </c>
       <c r="O8">
-        <v>1.467010669792714</v>
+        <v>0.981161825145648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.089730026220195</v>
+        <v>3.085898382562732</v>
       </c>
       <c r="C9">
-        <v>0.3019259851008371</v>
+        <v>0.379611088462795</v>
       </c>
       <c r="D9">
-        <v>0.02326048702741446</v>
+        <v>0.06751522680971078</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4717424715242657</v>
+        <v>0.4680829098187544</v>
       </c>
       <c r="G9">
-        <v>0.3142457565532482</v>
+        <v>0.3436017367774582</v>
       </c>
       <c r="H9">
-        <v>0.4620991977128313</v>
+        <v>0.2340442424676752</v>
       </c>
       <c r="I9">
-        <v>0.4355400877213462</v>
+        <v>0.1965074421907573</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.32576244780401</v>
+        <v>0.5174159471364277</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9808019967161385</v>
+        <v>0.7406179668622173</v>
       </c>
       <c r="O9">
-        <v>1.481950277817845</v>
+        <v>1.170142832982606</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.265632098115134</v>
+        <v>3.661108316574712</v>
       </c>
       <c r="C10">
-        <v>0.3149262661827947</v>
+        <v>0.4191637004853419</v>
       </c>
       <c r="D10">
-        <v>0.02707755183251948</v>
+        <v>0.07937311500353417</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.48348263877417</v>
+        <v>0.539214968124476</v>
       </c>
       <c r="G10">
-        <v>0.3229342021733714</v>
+        <v>0.398302453769503</v>
       </c>
       <c r="H10">
-        <v>0.4608215199038455</v>
+        <v>0.2513946366767215</v>
       </c>
       <c r="I10">
-        <v>0.4298601937169302</v>
+        <v>0.2033436426392043</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3485988557300885</v>
+        <v>0.6111429724217743</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9806349535199956</v>
+        <v>0.7516499592731236</v>
       </c>
       <c r="O10">
-        <v>1.498082287884984</v>
+        <v>1.322961115244624</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.34556019050126</v>
+        <v>3.923452772356484</v>
       </c>
       <c r="C11">
-        <v>0.3208281525361656</v>
+        <v>0.4371525315187625</v>
       </c>
       <c r="D11">
-        <v>0.02880556607559726</v>
+        <v>0.08476925457279805</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4891786504845541</v>
+        <v>0.5727585789464555</v>
       </c>
       <c r="G11">
-        <v>0.3271692492411375</v>
+        <v>0.4242617930399177</v>
       </c>
       <c r="H11">
-        <v>0.4604955695827755</v>
+        <v>0.2599090869190093</v>
       </c>
       <c r="I11">
-        <v>0.4275926698953363</v>
+        <v>0.2073089029314907</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3591655642312332</v>
+        <v>0.6545092825009817</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9809540769983585</v>
+        <v>0.7577681437868904</v>
       </c>
       <c r="O11">
-        <v>1.506544962589004</v>
+        <v>1.396051722231505</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.37581227144625</v>
+        <v>4.022920556718418</v>
       </c>
       <c r="C12">
-        <v>0.323061131909185</v>
+        <v>0.4439644041906661</v>
       </c>
       <c r="D12">
-        <v>0.02945868581318223</v>
+        <v>0.0868133106912552</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4913867333859159</v>
+        <v>0.5856475066765583</v>
       </c>
       <c r="G12">
-        <v>0.3288137286039046</v>
+        <v>0.4342620834607516</v>
       </c>
       <c r="H12">
-        <v>0.4604088316581567</v>
+        <v>0.2632296264432767</v>
       </c>
       <c r="I12">
-        <v>0.4267795816778985</v>
+        <v>0.2089428903505457</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3631924912723719</v>
+        <v>0.6710482190213725</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9811315561725849</v>
+        <v>0.7602526164209706</v>
       </c>
       <c r="O12">
-        <v>1.509911466073646</v>
+        <v>1.424290366560285</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.369297640092555</v>
+        <v>4.001492454821289</v>
       </c>
       <c r="C13">
-        <v>0.3225803093329205</v>
+        <v>0.4424973424655434</v>
       </c>
       <c r="D13">
-        <v>0.02931808058664842</v>
+        <v>0.08637305120723937</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4909089089198488</v>
+        <v>0.5828630726523656</v>
       </c>
       <c r="G13">
-        <v>0.3284577459379108</v>
+        <v>0.432100523656672</v>
       </c>
       <c r="H13">
-        <v>0.4604258805661345</v>
+        <v>0.2625100910457689</v>
       </c>
       <c r="I13">
-        <v>0.426952666407896</v>
+        <v>0.2085849359461953</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3623240859733414</v>
+        <v>0.6674808546901119</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9810908169048673</v>
+        <v>0.7597099267499487</v>
       </c>
       <c r="O13">
-        <v>1.50917922651567</v>
+        <v>1.418182945169491</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.348049358067783</v>
+        <v>3.931633412719123</v>
       </c>
       <c r="C14">
-        <v>0.3210119011126551</v>
+        <v>0.4377129477344681</v>
       </c>
       <c r="D14">
-        <v>0.02885932371967925</v>
+        <v>0.08493740491517343</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4893592859818838</v>
+        <v>0.5738151205102824</v>
       </c>
       <c r="G14">
-        <v>0.3273037240131487</v>
+        <v>0.4250810233330213</v>
       </c>
       <c r="H14">
-        <v>0.4604876983204349</v>
+        <v>0.2601802985231387</v>
       </c>
       <c r="I14">
-        <v>0.4275248627463668</v>
+        <v>0.2074406219764562</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3594963505663173</v>
+        <v>0.6558675322356464</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9809675443171244</v>
+        <v>0.7579691263134549</v>
       </c>
       <c r="O14">
-        <v>1.506818681440365</v>
+        <v>1.398363412609029</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.335032167580209</v>
+        <v>3.888859640101089</v>
       </c>
       <c r="C15">
-        <v>0.3200509473201691</v>
+        <v>0.4347823682506373</v>
       </c>
       <c r="D15">
-        <v>0.02857815912122419</v>
+        <v>0.08405812707549387</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4884167562126294</v>
+        <v>0.5682978008570245</v>
       </c>
       <c r="G15">
-        <v>0.3266021637275287</v>
+        <v>0.4208039952930989</v>
       </c>
       <c r="H15">
-        <v>0.4605303414513031</v>
+        <v>0.2587659872483101</v>
       </c>
       <c r="I15">
-        <v>0.4278812873023661</v>
+        <v>0.2067572321824152</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3577676046411824</v>
+        <v>0.6487696558062765</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9808994063749594</v>
+        <v>0.7569249610507285</v>
       </c>
       <c r="O15">
-        <v>1.505393866477618</v>
+        <v>1.38629785948342</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.260406621264337</v>
+        <v>3.643979326454371</v>
       </c>
       <c r="C16">
-        <v>0.314540304423673</v>
+        <v>0.4179880472323134</v>
       </c>
       <c r="D16">
-        <v>0.02696445021431515</v>
+        <v>0.07902053512577822</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4831175440056086</v>
+        <v>0.5370480310849501</v>
       </c>
       <c r="G16">
-        <v>0.322663129173975</v>
+        <v>0.3966288874128452</v>
       </c>
       <c r="H16">
-        <v>0.4608479569348134</v>
+        <v>0.2508512873380226</v>
       </c>
       <c r="I16">
-        <v>0.4300147541390729</v>
+        <v>0.2031025093489305</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3479118762905813</v>
+        <v>0.6083245818507663</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9806220330088422</v>
+        <v>0.751273050166418</v>
       </c>
       <c r="O16">
-        <v>1.49755187188174</v>
+        <v>1.318260320691735</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.214601683914964</v>
+        <v>3.493944907025764</v>
       </c>
       <c r="C17">
-        <v>0.3111564783728795</v>
+        <v>0.4076845857699709</v>
       </c>
       <c r="D17">
-        <v>0.0259723184647811</v>
+        <v>0.07593089045399637</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4799576832514418</v>
+        <v>0.5181921332901069</v>
       </c>
       <c r="G17">
-        <v>0.3203191312111358</v>
+        <v>0.382084387241548</v>
       </c>
       <c r="H17">
-        <v>0.4611081740975465</v>
+        <v>0.2461598770581048</v>
       </c>
       <c r="I17">
-        <v>0.4314046416370374</v>
+        <v>0.2010860774873429</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3419113073623095</v>
+        <v>0.5837080697854162</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9805529398458646</v>
+        <v>0.7480940292973202</v>
       </c>
       <c r="O17">
-        <v>1.493029141338752</v>
+        <v>1.277469125420453</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.188247478258916</v>
+        <v>3.40771127282818</v>
       </c>
       <c r="C18">
-        <v>0.3092090735230215</v>
+        <v>0.4017579141245164</v>
       </c>
       <c r="D18">
-        <v>0.02540088316975186</v>
+        <v>0.07415396583402156</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4781736606676503</v>
+        <v>0.5074572526640537</v>
       </c>
       <c r="G18">
-        <v>0.3189975211220002</v>
+        <v>0.3738190503358538</v>
       </c>
       <c r="H18">
-        <v>0.4612818724427541</v>
+        <v>0.2435195775923376</v>
       </c>
       <c r="I18">
-        <v>0.432233833275351</v>
+        <v>0.2000062005099856</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3384767282769303</v>
+        <v>0.569617185047278</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9805503997599345</v>
+        <v>0.7463684436218756</v>
       </c>
       <c r="O18">
-        <v>1.490533582962058</v>
+        <v>1.25434040948582</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.179323009905318</v>
+        <v>3.378523966155115</v>
       </c>
       <c r="C19">
-        <v>0.3085495301734227</v>
+        <v>0.399751164900195</v>
       </c>
       <c r="D19">
-        <v>0.02520727085275354</v>
+        <v>0.07355234557942225</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4775753647335108</v>
+        <v>0.5038411119864534</v>
       </c>
       <c r="G19">
-        <v>0.3185546108656183</v>
+        <v>0.3710373190683072</v>
       </c>
       <c r="H19">
-        <v>0.4613448110697078</v>
+        <v>0.2426353887505144</v>
       </c>
       <c r="I19">
-        <v>0.432519692691077</v>
+        <v>0.1996540214958991</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3373167253602247</v>
+        <v>0.5648575544574186</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9805559345844586</v>
+        <v>0.7458015830702323</v>
       </c>
       <c r="O19">
-        <v>1.489706793613465</v>
+        <v>1.246565282822502</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.219478582744955</v>
+        <v>3.50990970761444</v>
       </c>
       <c r="C20">
-        <v>0.3115168096265677</v>
+        <v>0.4087814444973219</v>
       </c>
       <c r="D20">
-        <v>0.02607801432916546</v>
+        <v>0.07625976946538771</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.48029059410581</v>
+        <v>0.5201878215675961</v>
       </c>
       <c r="G20">
-        <v>0.3205659004026273</v>
+        <v>0.3836221878168686</v>
       </c>
       <c r="H20">
-        <v>0.461077986806302</v>
+        <v>0.2466532264462842</v>
       </c>
       <c r="I20">
-        <v>0.431253604494426</v>
+        <v>0.2012923921342669</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3425483412245285</v>
+        <v>0.5863214283797191</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9805564461577205</v>
+        <v>0.7484217243263487</v>
       </c>
       <c r="O20">
-        <v>1.493499642551598</v>
+        <v>1.281776591059639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.354290914661021</v>
+        <v>3.952149133890998</v>
       </c>
       <c r="C21">
-        <v>0.3214726348669785</v>
+        <v>0.4391182394582813</v>
       </c>
       <c r="D21">
-        <v>0.02899410571759375</v>
+        <v>0.085359068113533</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4898130600205306</v>
+        <v>0.5764675220677304</v>
       </c>
       <c r="G21">
-        <v>0.327641581115472</v>
+        <v>0.4271380782194285</v>
       </c>
       <c r="H21">
-        <v>0.4604685452503361</v>
+        <v>0.2608619442008262</v>
       </c>
       <c r="I21">
-        <v>0.4273555572211194</v>
+        <v>0.2077730627089593</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3603262325277967</v>
+        <v>0.6592753687337023</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9810022168668695</v>
+        <v>0.7584758129017075</v>
       </c>
       <c r="O21">
-        <v>1.50750763583676</v>
+        <v>1.404169279343705</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.442310521034472</v>
+        <v>4.241912334888298</v>
       </c>
       <c r="C22">
-        <v>0.3279679553783126</v>
+        <v>0.4589447200912105</v>
       </c>
       <c r="D22">
-        <v>0.03089268554126789</v>
+        <v>0.09130999819020502</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4963345601698279</v>
+        <v>0.6143460251284552</v>
       </c>
       <c r="G22">
-        <v>0.3325035749329999</v>
+        <v>0.4565772728062711</v>
       </c>
       <c r="H22">
-        <v>0.460284103968462</v>
+        <v>0.2707130151004549</v>
       </c>
       <c r="I22">
-        <v>0.4250736394041823</v>
+        <v>0.2127852479432484</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3720939554473688</v>
+        <v>0.7076435113718418</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9816235785979188</v>
+        <v>0.7660287693800711</v>
       </c>
       <c r="O22">
-        <v>1.517606284361477</v>
+        <v>1.487452895881461</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.395341490002579</v>
+        <v>4.087183949640519</v>
       </c>
       <c r="C23">
-        <v>0.3245023917727963</v>
+        <v>0.4483628226203109</v>
       </c>
       <c r="D23">
-        <v>0.02988005333090626</v>
+        <v>0.08813337620247097</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4928266354044055</v>
+        <v>0.5940235885238536</v>
       </c>
       <c r="G23">
-        <v>0.3298868561617923</v>
+        <v>0.4407682705612217</v>
       </c>
       <c r="H23">
-        <v>0.4603629803261811</v>
+        <v>0.2654012294773196</v>
       </c>
       <c r="I23">
-        <v>0.4262672018178684</v>
+        <v>0.2100358186529689</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3657997134959885</v>
+        <v>0.6817612911583382</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9812618080850797</v>
+        <v>0.7619044600641871</v>
       </c>
       <c r="O23">
-        <v>1.512130032557451</v>
+        <v>1.442685215307165</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.217273799984525</v>
+        <v>3.502691951100019</v>
       </c>
       <c r="C24">
-        <v>0.3113539100750984</v>
+        <v>0.4082855642754453</v>
       </c>
       <c r="D24">
-        <v>0.02603023248356351</v>
+        <v>0.07611108530716848</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4801399834917746</v>
+        <v>0.5192852431120443</v>
       </c>
       <c r="G24">
-        <v>0.3204542551174399</v>
+        <v>0.3829266487825436</v>
       </c>
       <c r="H24">
-        <v>0.4610915594217602</v>
+        <v>0.2464300066149434</v>
       </c>
       <c r="I24">
-        <v>0.431321794550783</v>
+        <v>0.2011988706854382</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3422602907764798</v>
+        <v>0.5851397383858483</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9805547451189653</v>
+        <v>0.7482732561735332</v>
       </c>
       <c r="O24">
-        <v>1.49328660308791</v>
+        <v>1.279828184273498</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.024884249432716</v>
+        <v>2.874509344281421</v>
       </c>
       <c r="C25">
-        <v>0.2971292226984446</v>
+        <v>0.3650393239209677</v>
       </c>
       <c r="D25">
-        <v>0.0218476039027351</v>
+        <v>0.06314774082387231</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4677338676302867</v>
+        <v>0.4428360872629753</v>
       </c>
       <c r="G25">
-        <v>0.3112959201759935</v>
+        <v>0.3243144412033701</v>
       </c>
       <c r="H25">
-        <v>0.462796146189703</v>
+        <v>0.2281624232757338</v>
       </c>
       <c r="I25">
-        <v>0.4379115911121083</v>
+        <v>0.1946888963910567</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3175113828869058</v>
+        <v>0.4834699793253208</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9812150612563499</v>
+        <v>0.7374702526714714</v>
       </c>
       <c r="O25">
-        <v>1.47700463823233</v>
+        <v>1.116736874145829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.4129683350547</v>
+        <v>1.028493168632167</v>
       </c>
       <c r="C2">
-        <v>0.333162219867333</v>
+        <v>0.1557289526940338</v>
       </c>
       <c r="D2">
-        <v>0.05359180962392429</v>
+        <v>0.06352378340939424</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3895649596449076</v>
+        <v>0.779689342893704</v>
       </c>
       <c r="G2">
-        <v>0.2838759924503975</v>
+        <v>0.7006832883241145</v>
       </c>
       <c r="H2">
-        <v>0.216362403064764</v>
+        <v>0.007169271120500031</v>
       </c>
       <c r="I2">
-        <v>0.1921717319675551</v>
+        <v>0.005883069274390529</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.518563612469805</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5798715178880514</v>
       </c>
       <c r="L2">
-        <v>0.4103756091553237</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9545668972823478</v>
       </c>
       <c r="N2">
-        <v>0.7325437270544271</v>
+        <v>0.2258843872189544</v>
       </c>
       <c r="O2">
-        <v>1.005840314949694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2478708297901413</v>
+      </c>
+      <c r="P2">
+        <v>1.101471651941697</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.100353478122429</v>
+        <v>0.8963756775184777</v>
       </c>
       <c r="C3">
-        <v>0.3115285345973717</v>
+        <v>0.1408400362364688</v>
       </c>
       <c r="D3">
-        <v>0.04710189773389573</v>
+        <v>0.0592355288071289</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3550835638297087</v>
+        <v>0.7362016288313313</v>
       </c>
       <c r="G3">
-        <v>0.2579197527705901</v>
+        <v>0.6655934998711928</v>
       </c>
       <c r="H3">
-        <v>0.2092850144028873</v>
+        <v>0.009391573299159572</v>
       </c>
       <c r="I3">
-        <v>0.1917358847848583</v>
+        <v>0.008013130809605862</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5065685878651038</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.565155996629926</v>
       </c>
       <c r="L3">
-        <v>0.361742045706535</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8297702596808278</v>
       </c>
       <c r="N3">
-        <v>0.7309430965443227</v>
+        <v>0.2012480626618398</v>
       </c>
       <c r="O3">
-        <v>0.9356638411229312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2173071340251873</v>
+      </c>
+      <c r="P3">
+        <v>1.131124159267117</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908363386851192</v>
+        <v>0.8149932044500758</v>
       </c>
       <c r="C4">
-        <v>0.2982283987484493</v>
+        <v>0.1317857090007521</v>
       </c>
       <c r="D4">
-        <v>0.04310823700010502</v>
+        <v>0.05659143531336142</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3346306178644411</v>
+        <v>0.7100119470556621</v>
       </c>
       <c r="G4">
-        <v>0.2426214744404263</v>
+        <v>0.6444642327402192</v>
       </c>
       <c r="H4">
-        <v>0.205359145400493</v>
+        <v>0.01096295320030586</v>
       </c>
       <c r="I4">
-        <v>0.1920481945432897</v>
+        <v>0.009583944271146727</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4994910580584673</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5562836474207167</v>
       </c>
       <c r="L4">
-        <v>0.3322658586877765</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7531785504325796</v>
       </c>
       <c r="N4">
-        <v>0.7307713429660865</v>
+        <v>0.1861146198977508</v>
       </c>
       <c r="O4">
-        <v>0.8947991735415286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.198501596847354</v>
+      </c>
+      <c r="P4">
+        <v>1.149797188430288</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.830098250661109</v>
+        <v>0.7809960017752644</v>
       </c>
       <c r="C5">
-        <v>0.2928040656945541</v>
+        <v>0.1282921550034004</v>
       </c>
       <c r="D5">
-        <v>0.04147830981957412</v>
+        <v>0.05555685630727325</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3264653209924475</v>
+        <v>0.6988134739373706</v>
       </c>
       <c r="G5">
-        <v>0.23653732896355</v>
+        <v>0.6352516945601678</v>
       </c>
       <c r="H5">
-        <v>0.203860088511945</v>
+        <v>0.01165843959988051</v>
       </c>
       <c r="I5">
-        <v>0.1923146879939566</v>
+        <v>0.01037255241915558</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4963178734325311</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.552140619499383</v>
       </c>
       <c r="L5">
-        <v>0.3203425560784154</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7218364980635243</v>
       </c>
       <c r="N5">
-        <v>0.7308988088654473</v>
+        <v>0.1799683053251258</v>
       </c>
       <c r="O5">
-        <v>0.8786731722891261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1907207825358377</v>
+      </c>
+      <c r="P5">
+        <v>1.157095607569694</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.81710024776325</v>
+        <v>0.7744123793115421</v>
       </c>
       <c r="C6">
-        <v>0.291903088689395</v>
+        <v>0.1279323973362096</v>
       </c>
       <c r="D6">
-        <v>0.04120750471468426</v>
+        <v>0.05544138578176572</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3251193926833196</v>
+        <v>0.6961697761850871</v>
       </c>
       <c r="G6">
-        <v>0.235535820086092</v>
+        <v>0.6328718091703678</v>
       </c>
       <c r="H6">
-        <v>0.2036171219811251</v>
+        <v>0.01178297654581933</v>
       </c>
       <c r="I6">
-        <v>0.1923671599805097</v>
+        <v>0.01061822987904559</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4953568970109785</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5507630513455624</v>
       </c>
       <c r="L6">
-        <v>0.3183678086663946</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.716472223109605</v>
       </c>
       <c r="N6">
-        <v>0.730931716951261</v>
+        <v>0.1789771119745325</v>
       </c>
       <c r="O6">
-        <v>0.8760263475470964</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1892979116665252</v>
+      </c>
+      <c r="P6">
+        <v>1.157796244677829</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907308009023069</v>
+        <v>0.8119746207913749</v>
       </c>
       <c r="C7">
-        <v>0.298155262365313</v>
+        <v>0.1323393591012589</v>
       </c>
       <c r="D7">
-        <v>0.04308626559675588</v>
+        <v>0.0567327194310252</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3345198263144411</v>
+        <v>0.7076984993717019</v>
       </c>
       <c r="G7">
-        <v>0.2425388278026404</v>
+        <v>0.6420013399241071</v>
       </c>
       <c r="H7">
-        <v>0.2053385267379042</v>
+        <v>0.01098780273690655</v>
       </c>
       <c r="I7">
-        <v>0.1920512333765387</v>
+        <v>0.009880249931990548</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4982522381582442</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5543384257148141</v>
       </c>
       <c r="L7">
-        <v>0.3321047093273819</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7523172480518099</v>
       </c>
       <c r="N7">
-        <v>0.7307722708510767</v>
+        <v>0.186113331332777</v>
       </c>
       <c r="O7">
-        <v>0.8945796021173749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1980400982735304</v>
+      </c>
+      <c r="P7">
+        <v>1.148494373287775</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.305177238591</v>
+        <v>0.9795659041895988</v>
       </c>
       <c r="C8">
-        <v>0.3257063349360294</v>
+        <v>0.1513794141029265</v>
       </c>
       <c r="D8">
-        <v>0.0513557590144913</v>
+        <v>0.06225678463305684</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3775196331425619</v>
+        <v>0.7617219628896521</v>
       </c>
       <c r="G8">
-        <v>0.2747871074025667</v>
+        <v>0.6854000367741975</v>
       </c>
       <c r="H8">
-        <v>0.2138320802070623</v>
+        <v>0.007908121275881891</v>
       </c>
       <c r="I8">
-        <v>0.1918970307258263</v>
+        <v>0.006902552065480627</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.512789598789638</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5722686135330548</v>
       </c>
       <c r="L8">
-        <v>0.3935216963189845</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9109338396851854</v>
       </c>
       <c r="N8">
-        <v>0.7318194914678244</v>
+        <v>0.2175005124556577</v>
       </c>
       <c r="O8">
-        <v>0.981161825145648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.23686345501633</v>
+      </c>
+      <c r="P8">
+        <v>1.109810510736057</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.085898382562732</v>
+        <v>1.310992438013784</v>
       </c>
       <c r="C9">
-        <v>0.379611088462795</v>
+        <v>0.188529061780315</v>
       </c>
       <c r="D9">
-        <v>0.06751522680971078</v>
+        <v>0.07273336925501894</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4680829098187544</v>
+        <v>0.8759639985401009</v>
       </c>
       <c r="G9">
-        <v>0.3436017367774582</v>
+        <v>0.7783165397511738</v>
       </c>
       <c r="H9">
-        <v>0.2340442424676752</v>
+        <v>0.00357689482372392</v>
       </c>
       <c r="I9">
-        <v>0.1965074421907573</v>
+        <v>0.002834572001395586</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5458496105293307</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6122048519466929</v>
       </c>
       <c r="L9">
-        <v>0.5174159471364277</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.223466897008024</v>
       </c>
       <c r="N9">
-        <v>0.7406179668622173</v>
+        <v>0.2789355941659437</v>
       </c>
       <c r="O9">
-        <v>1.170142832982606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3133895677501499</v>
+      </c>
+      <c r="P9">
+        <v>1.04017751062613</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.661108316574712</v>
+        <v>1.54251872244194</v>
       </c>
       <c r="C10">
-        <v>0.4191637004853419</v>
+        <v>0.2198458603764379</v>
       </c>
       <c r="D10">
-        <v>0.07937311500353417</v>
+        <v>0.08129744778111814</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.539214968124476</v>
+        <v>0.9518286694806903</v>
       </c>
       <c r="G10">
-        <v>0.398302453769503</v>
+        <v>0.8370766002184666</v>
       </c>
       <c r="H10">
-        <v>0.2513946366767215</v>
+        <v>0.00187253340048299</v>
       </c>
       <c r="I10">
-        <v>0.2033436426392043</v>
+        <v>0.001515505184578991</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5656696713013503</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6329694435231303</v>
       </c>
       <c r="L10">
-        <v>0.6111429724217743</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.453251238125034</v>
       </c>
       <c r="N10">
-        <v>0.7516499592731236</v>
+        <v>0.3069409971483594</v>
       </c>
       <c r="O10">
-        <v>1.322961115244624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3602378287049106</v>
+      </c>
+      <c r="P10">
+        <v>0.9849867059069624</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.923452772356484</v>
+        <v>1.557363912794983</v>
       </c>
       <c r="C11">
-        <v>0.4371525315187625</v>
+        <v>0.2632007818315998</v>
       </c>
       <c r="D11">
-        <v>0.08476925457279805</v>
+        <v>0.09307197608632833</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5727585789464555</v>
+        <v>0.8957488193385075</v>
       </c>
       <c r="G11">
-        <v>0.4242617930399177</v>
+        <v>0.766822195119218</v>
       </c>
       <c r="H11">
-        <v>0.2599090869190093</v>
+        <v>0.020570576327259</v>
       </c>
       <c r="I11">
-        <v>0.2073089029314907</v>
+        <v>0.001821827462070935</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5257262898920914</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5671155959550518</v>
       </c>
       <c r="L11">
-        <v>0.6545092825009817</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.551714036852218</v>
       </c>
       <c r="N11">
-        <v>0.7577681437868904</v>
+        <v>0.1897519059091977</v>
       </c>
       <c r="O11">
-        <v>1.396051722231505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3049522238872555</v>
+      </c>
+      <c r="P11">
+        <v>0.9149390896892449</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.022920556718418</v>
+        <v>1.524413465037554</v>
       </c>
       <c r="C12">
-        <v>0.4439644041906661</v>
+        <v>0.2958302467741589</v>
       </c>
       <c r="D12">
-        <v>0.0868133106912552</v>
+        <v>0.1017049231188381</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5856475066765583</v>
+        <v>0.8363958844854977</v>
       </c>
       <c r="G12">
-        <v>0.4342620834607516</v>
+        <v>0.7005609393952028</v>
       </c>
       <c r="H12">
-        <v>0.2632296264432767</v>
+        <v>0.05949188589205789</v>
       </c>
       <c r="I12">
-        <v>0.2089428903505457</v>
+        <v>0.001795093459029395</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4903748408266466</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5129630432039463</v>
       </c>
       <c r="L12">
-        <v>0.6710482190213725</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.58687721053002</v>
       </c>
       <c r="N12">
-        <v>0.7602526164209706</v>
+        <v>0.1123088218799495</v>
       </c>
       <c r="O12">
-        <v>1.424290366560285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2532397423229362</v>
+      </c>
+      <c r="P12">
+        <v>0.8784460837173889</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.001492454821289</v>
+        <v>1.448920394703777</v>
       </c>
       <c r="C13">
-        <v>0.4424973424655434</v>
+        <v>0.322596936390994</v>
       </c>
       <c r="D13">
-        <v>0.08637305120723937</v>
+        <v>0.1085623703113683</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5828630726523656</v>
+        <v>0.7675843208367752</v>
       </c>
       <c r="G13">
-        <v>0.432100523656672</v>
+        <v>0.6297992826318506</v>
       </c>
       <c r="H13">
-        <v>0.2625100910457689</v>
+        <v>0.1156421894626476</v>
       </c>
       <c r="I13">
-        <v>0.2085849359461953</v>
+        <v>0.001879460652238762</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4545603450380753</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4617015128315103</v>
       </c>
       <c r="L13">
-        <v>0.6674808546901119</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.574222677483419</v>
       </c>
       <c r="N13">
-        <v>0.7597099267499487</v>
+        <v>0.06108966666161564</v>
       </c>
       <c r="O13">
-        <v>1.418182945169491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2010495437693542</v>
+      </c>
+      <c r="P13">
+        <v>0.8626726681609092</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.931633412719123</v>
+        <v>1.376492963612804</v>
       </c>
       <c r="C14">
-        <v>0.4377129477344681</v>
+        <v>0.3392079295969808</v>
       </c>
       <c r="D14">
-        <v>0.08493740491517343</v>
+        <v>0.1126531300318092</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5738151205102824</v>
+        <v>0.7150690929021408</v>
       </c>
       <c r="G14">
-        <v>0.4250810233330213</v>
+        <v>0.5782928671420677</v>
       </c>
       <c r="H14">
-        <v>0.2601802985231387</v>
+        <v>0.165340250321151</v>
       </c>
       <c r="I14">
-        <v>0.2074406219764562</v>
+        <v>0.002097721785442985</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4292632392126592</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4273301508897482</v>
       </c>
       <c r="L14">
-        <v>0.6558675322356464</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.543604839096417</v>
       </c>
       <c r="N14">
-        <v>0.7579691263134549</v>
+        <v>0.04093224665377448</v>
       </c>
       <c r="O14">
-        <v>1.398363412609029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1651547293700375</v>
+      </c>
+      <c r="P14">
+        <v>0.8617937481807143</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.888859640101089</v>
+        <v>1.349040996887936</v>
       </c>
       <c r="C15">
-        <v>0.4347823682506373</v>
+        <v>0.3418646049905192</v>
       </c>
       <c r="D15">
-        <v>0.08405812707549387</v>
+        <v>0.1132441121897401</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5682978008570245</v>
+        <v>0.6995459263568833</v>
       </c>
       <c r="G15">
-        <v>0.4208039952930989</v>
+        <v>0.5639100066630363</v>
       </c>
       <c r="H15">
-        <v>0.2587659872483101</v>
+        <v>0.1780060364026497</v>
       </c>
       <c r="I15">
-        <v>0.2067572321824152</v>
+        <v>0.002312581114509271</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4225737823983309</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.418736855459219</v>
       </c>
       <c r="L15">
-        <v>0.6487696558062765</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.525778562142506</v>
       </c>
       <c r="N15">
-        <v>0.7569249610507285</v>
+        <v>0.03805638522162358</v>
       </c>
       <c r="O15">
-        <v>1.38629785948342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1557586488625056</v>
+      </c>
+      <c r="P15">
+        <v>0.864658280931053</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.643979326454371</v>
+        <v>1.265121768151886</v>
       </c>
       <c r="C16">
-        <v>0.4179880472323134</v>
+        <v>0.3222307544312315</v>
       </c>
       <c r="D16">
-        <v>0.07902053512577822</v>
+        <v>0.1079785621692153</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5370480310849501</v>
+        <v>0.680036689579147</v>
       </c>
       <c r="G16">
-        <v>0.3966288874128452</v>
+        <v>0.5522096575143109</v>
       </c>
       <c r="H16">
-        <v>0.2508512873380226</v>
+        <v>0.1660563478989445</v>
       </c>
       <c r="I16">
-        <v>0.2031025093489305</v>
+        <v>0.002944828060501337</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4207129865636858</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4196250857039985</v>
       </c>
       <c r="L16">
-        <v>0.6083245818507663</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.428763830890972</v>
       </c>
       <c r="N16">
-        <v>0.751273050166418</v>
+        <v>0.03795138804962495</v>
       </c>
       <c r="O16">
-        <v>1.318260320691735</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1476319874150072</v>
+      </c>
+      <c r="P16">
+        <v>0.8886087537701233</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.493944907025764</v>
+        <v>1.238925298409129</v>
       </c>
       <c r="C17">
-        <v>0.4076845857699709</v>
+        <v>0.298275933482202</v>
       </c>
       <c r="D17">
-        <v>0.07593089045399637</v>
+        <v>0.1017699014872875</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5181921332901069</v>
+        <v>0.6928191603508083</v>
       </c>
       <c r="G17">
-        <v>0.382084387241548</v>
+        <v>0.5703018957905499</v>
       </c>
       <c r="H17">
-        <v>0.2461598770581048</v>
+        <v>0.1287006826090789</v>
       </c>
       <c r="I17">
-        <v>0.2010860774873429</v>
+        <v>0.00336169715609369</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4326354187652299</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.438184070429692</v>
       </c>
       <c r="L17">
-        <v>0.5837080697854162</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.370820412944198</v>
       </c>
       <c r="N17">
-        <v>0.7480940292973202</v>
+        <v>0.0458926626915499</v>
       </c>
       <c r="O17">
-        <v>1.277469125420453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.159771404713922</v>
+      </c>
+      <c r="P17">
+        <v>0.9071407158181088</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.40771127282818</v>
+        <v>1.261377356274721</v>
       </c>
       <c r="C18">
-        <v>0.4017579141245164</v>
+        <v>0.2686381315392765</v>
       </c>
       <c r="D18">
-        <v>0.07415396583402156</v>
+        <v>0.09418077642052225</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5074572526640537</v>
+        <v>0.7369367743578294</v>
       </c>
       <c r="G18">
-        <v>0.3738190503358538</v>
+        <v>0.6188422276486278</v>
       </c>
       <c r="H18">
-        <v>0.2435195775923376</v>
+        <v>0.07586671245745435</v>
       </c>
       <c r="I18">
-        <v>0.2000062005099856</v>
+        <v>0.003240096070471488</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.459077854083958</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4768903804671005</v>
       </c>
       <c r="L18">
-        <v>0.569617185047278</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.340033750886448</v>
       </c>
       <c r="N18">
-        <v>0.7463684436218756</v>
+        <v>0.07519606325301353</v>
       </c>
       <c r="O18">
-        <v>1.25434040948582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.193295058377764</v>
+      </c>
+      <c r="P18">
+        <v>0.9278472004252234</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.378523966155115</v>
+        <v>1.316965805561352</v>
       </c>
       <c r="C19">
-        <v>0.399751164900195</v>
+        <v>0.2405500812666048</v>
       </c>
       <c r="D19">
-        <v>0.07355234557942225</v>
+        <v>0.08687006090429605</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5038411119864534</v>
+        <v>0.8008023488945071</v>
       </c>
       <c r="G19">
-        <v>0.3710373190683072</v>
+        <v>0.6868308983185329</v>
       </c>
       <c r="H19">
-        <v>0.2426353887505144</v>
+        <v>0.03010211386129669</v>
       </c>
       <c r="I19">
-        <v>0.1996540214958991</v>
+        <v>0.003228284379536817</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4943336616474028</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.528949011677895</v>
       </c>
       <c r="L19">
-        <v>0.5648575544574186</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.332351210573393</v>
       </c>
       <c r="N19">
-        <v>0.7458015830702323</v>
+        <v>0.1400177821583526</v>
       </c>
       <c r="O19">
-        <v>1.246565282822502</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2448865285781707</v>
+      </c>
+      <c r="P19">
+        <v>0.9544212475506733</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.50990970761444</v>
+        <v>1.473144018840173</v>
       </c>
       <c r="C20">
-        <v>0.4087814444973219</v>
+        <v>0.2136513168701839</v>
       </c>
       <c r="D20">
-        <v>0.07625976946538771</v>
+        <v>0.07960078833484374</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5201878215675961</v>
+        <v>0.9245222342348143</v>
       </c>
       <c r="G20">
-        <v>0.3836221878168686</v>
+        <v>0.813743955544453</v>
       </c>
       <c r="H20">
-        <v>0.2466532264462842</v>
+        <v>0.002249019886755743</v>
       </c>
       <c r="I20">
-        <v>0.2012923921342669</v>
+        <v>0.002588239967826311</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5564410959969024</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6212873895182796</v>
       </c>
       <c r="L20">
-        <v>0.5863214283797191</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.391345010075838</v>
       </c>
       <c r="N20">
-        <v>0.7484217243263487</v>
+        <v>0.2991086676482837</v>
       </c>
       <c r="O20">
-        <v>1.281776591059639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3464321347301009</v>
+      </c>
+      <c r="P20">
+        <v>0.9952337314316537</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.952149133890998</v>
+        <v>1.667572265794064</v>
       </c>
       <c r="C21">
-        <v>0.4391182394582813</v>
+        <v>0.2332109250905177</v>
       </c>
       <c r="D21">
-        <v>0.085359068113533</v>
+        <v>0.08482354990422891</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5764675220677304</v>
+        <v>1.001211730777555</v>
       </c>
       <c r="G21">
-        <v>0.4271380782194285</v>
+        <v>0.8784634549552806</v>
       </c>
       <c r="H21">
-        <v>0.2608619442008262</v>
+        <v>0.0009001926450096231</v>
       </c>
       <c r="I21">
-        <v>0.2077730627089593</v>
+        <v>0.00186945993440446</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5816586312199377</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6522496458457852</v>
       </c>
       <c r="L21">
-        <v>0.6592753687337023</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.569461335628375</v>
       </c>
       <c r="N21">
-        <v>0.7584758129017075</v>
+        <v>0.3474350470487906</v>
       </c>
       <c r="O21">
-        <v>1.404169279343705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3967239009153332</v>
+      </c>
+      <c r="P21">
+        <v>0.9638819036287138</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.241912334888298</v>
+        <v>1.793066145270899</v>
       </c>
       <c r="C22">
-        <v>0.4589447200912105</v>
+        <v>0.2468935757039077</v>
       </c>
       <c r="D22">
-        <v>0.09130999819020502</v>
+        <v>0.08843387115323509</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6143460251284552</v>
+        <v>1.04970135791902</v>
       </c>
       <c r="G22">
-        <v>0.4565772728062711</v>
+        <v>0.918826736476646</v>
       </c>
       <c r="H22">
-        <v>0.2707130151004549</v>
+        <v>0.0004109563701264474</v>
       </c>
       <c r="I22">
-        <v>0.2127852479432484</v>
+        <v>0.001420452947541229</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.597211055901667</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6707443098463841</v>
       </c>
       <c r="L22">
-        <v>0.7076435113718418</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.686558015687126</v>
       </c>
       <c r="N22">
-        <v>0.7660287693800711</v>
+        <v>0.3701439059014575</v>
       </c>
       <c r="O22">
-        <v>1.487452895881461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.4254562744439738</v>
+      </c>
+      <c r="P22">
+        <v>0.942441299754389</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.087183949640519</v>
+        <v>1.729227397777265</v>
       </c>
       <c r="C23">
-        <v>0.4483628226203109</v>
+        <v>0.2388164200805534</v>
       </c>
       <c r="D23">
-        <v>0.08813337620247097</v>
+        <v>0.08630873377083503</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5940235885238536</v>
+        <v>1.026295220749432</v>
       </c>
       <c r="G23">
-        <v>0.4407682705612217</v>
+        <v>0.8999690070878046</v>
       </c>
       <c r="H23">
-        <v>0.2654012294773196</v>
+        <v>0.0006439428080344811</v>
       </c>
       <c r="I23">
-        <v>0.2100358186529689</v>
+        <v>0.001317602914214788</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5902627587916385</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6630479050090656</v>
       </c>
       <c r="L23">
-        <v>0.6817612911583382</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.624577641910122</v>
       </c>
       <c r="N23">
-        <v>0.7619044600641871</v>
+        <v>0.357912618395801</v>
       </c>
       <c r="O23">
-        <v>1.442685215307165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.4105552874118743</v>
+      </c>
+      <c r="P23">
+        <v>0.9552486300057126</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.502691951100019</v>
+        <v>1.482533819416432</v>
       </c>
       <c r="C24">
-        <v>0.4082855642754453</v>
+        <v>0.2099119142329471</v>
       </c>
       <c r="D24">
-        <v>0.07611108530716848</v>
+        <v>0.07857643332246766</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5192852431120443</v>
+        <v>0.9352868296372918</v>
       </c>
       <c r="G24">
-        <v>0.3829266487825436</v>
+        <v>0.8256352141359713</v>
       </c>
       <c r="H24">
-        <v>0.2464300066149434</v>
+        <v>0.002046100444720533</v>
       </c>
       <c r="I24">
-        <v>0.2011988706854382</v>
+        <v>0.002064222187078357</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5625727309841153</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6310024431000301</v>
       </c>
       <c r="L24">
-        <v>0.5851397383858483</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.389791969306174</v>
       </c>
       <c r="N24">
-        <v>0.7482732561735332</v>
+        <v>0.3118948206183489</v>
       </c>
       <c r="O24">
-        <v>1.279828184273498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3534859130017622</v>
+      </c>
+      <c r="P24">
+        <v>1.002668713275604</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.874509344281421</v>
+        <v>1.216762216422211</v>
       </c>
       <c r="C25">
-        <v>0.3650393239209677</v>
+        <v>0.179473493076685</v>
       </c>
       <c r="D25">
-        <v>0.06314774082387231</v>
+        <v>0.07019808480085032</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4428360872629753</v>
+        <v>0.8406208012719816</v>
       </c>
       <c r="G25">
-        <v>0.3243144412033701</v>
+        <v>0.7485224131738164</v>
       </c>
       <c r="H25">
-        <v>0.2281624232757338</v>
+        <v>0.00456677267373673</v>
       </c>
       <c r="I25">
-        <v>0.1946888963910567</v>
+        <v>0.004151746688306091</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5344827953084064</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5978434425531489</v>
       </c>
       <c r="L25">
-        <v>0.4834699793253208</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.137956504855794</v>
       </c>
       <c r="N25">
-        <v>0.7374702526714714</v>
+        <v>0.2624537824799376</v>
       </c>
       <c r="O25">
-        <v>1.116736874145829</v>
+        <v>0.2920464802964489</v>
+      </c>
+      <c r="P25">
+        <v>1.056263898312171</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.028493168632167</v>
+        <v>0.9570763820427715</v>
       </c>
       <c r="C2">
-        <v>0.1557289526940338</v>
+        <v>0.1596520688369054</v>
       </c>
       <c r="D2">
-        <v>0.06352378340939424</v>
+        <v>0.06619054144590564</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.779689342893704</v>
+        <v>0.7055824983258603</v>
       </c>
       <c r="G2">
-        <v>0.7006832883241145</v>
+        <v>0.6044681054339094</v>
       </c>
       <c r="H2">
-        <v>0.007169271120500031</v>
+        <v>0.005913922520446979</v>
       </c>
       <c r="I2">
-        <v>0.005883069274390529</v>
+        <v>0.004303974573420355</v>
       </c>
       <c r="J2">
-        <v>0.518563612469805</v>
+        <v>0.4982278973297412</v>
       </c>
       <c r="K2">
-        <v>0.5798715178880514</v>
+        <v>0.5048159880443812</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2260878259479391</v>
       </c>
       <c r="M2">
-        <v>0.9545668972823478</v>
+        <v>0.1562436375793474</v>
       </c>
       <c r="N2">
-        <v>0.2258843872189544</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2478708297901413</v>
+        <v>0.9467398358384855</v>
       </c>
       <c r="P2">
-        <v>1.101471651941697</v>
+        <v>0.2352376437711143</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2377698309686025</v>
+      </c>
+      <c r="R2">
+        <v>1.029900301792193</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8963756775184777</v>
+        <v>0.837321772036006</v>
       </c>
       <c r="C3">
-        <v>0.1408400362364688</v>
+        <v>0.1414346097994468</v>
       </c>
       <c r="D3">
-        <v>0.0592355288071289</v>
+        <v>0.06081062914471858</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7362016288313313</v>
+        <v>0.6703580988138711</v>
       </c>
       <c r="G3">
-        <v>0.6655934998711928</v>
+        <v>0.5800547004544967</v>
       </c>
       <c r="H3">
-        <v>0.009391573299159572</v>
+        <v>0.007770593388589236</v>
       </c>
       <c r="I3">
-        <v>0.008013130809605862</v>
+        <v>0.005863998903247847</v>
       </c>
       <c r="J3">
-        <v>0.5065685878651038</v>
+        <v>0.4865465090122001</v>
       </c>
       <c r="K3">
-        <v>0.565155996629926</v>
+        <v>0.4964462898232469</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2281396230872019</v>
       </c>
       <c r="M3">
-        <v>0.8297702596808278</v>
+        <v>0.1493865868346944</v>
       </c>
       <c r="N3">
-        <v>0.2012480626618398</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2173071340251873</v>
+        <v>0.8242741181617816</v>
       </c>
       <c r="P3">
-        <v>1.131124159267117</v>
+        <v>0.2104913334205989</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2089439297833273</v>
+      </c>
+      <c r="R3">
+        <v>1.060712126848802</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8149932044500758</v>
+        <v>0.7633240841176416</v>
       </c>
       <c r="C4">
-        <v>0.1317857090007521</v>
+        <v>0.1304155838804775</v>
       </c>
       <c r="D4">
-        <v>0.05659143531336142</v>
+        <v>0.05751131542729127</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7100119470556621</v>
+        <v>0.6490768053405489</v>
       </c>
       <c r="G4">
-        <v>0.6444642327402192</v>
+        <v>0.5654651629355811</v>
       </c>
       <c r="H4">
-        <v>0.01096295320030586</v>
+        <v>0.009085786876127253</v>
       </c>
       <c r="I4">
-        <v>0.009583944271146727</v>
+        <v>0.007037017072746288</v>
       </c>
       <c r="J4">
-        <v>0.4994910580584673</v>
+        <v>0.4794012919492161</v>
       </c>
       <c r="K4">
-        <v>0.5562836474207167</v>
+        <v>0.4913610767874275</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2293273728222616</v>
       </c>
       <c r="M4">
-        <v>0.7531785504325796</v>
+        <v>0.1458028358472099</v>
       </c>
       <c r="N4">
-        <v>0.1861146198977508</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.198501596847354</v>
+        <v>0.7490190269059838</v>
       </c>
       <c r="P4">
-        <v>1.149797188430288</v>
+        <v>0.1952930686877465</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1911775700389491</v>
+      </c>
+      <c r="R4">
+        <v>1.080104196620393</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7809960017752644</v>
+        <v>0.7323265047801613</v>
       </c>
       <c r="C5">
-        <v>0.1282921550034004</v>
+        <v>0.1261688949199424</v>
       </c>
       <c r="D5">
-        <v>0.05555685630727325</v>
+        <v>0.05621710269109315</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6988134739373706</v>
+        <v>0.6398823111701049</v>
       </c>
       <c r="G5">
-        <v>0.6352516945601678</v>
+        <v>0.5589769041330186</v>
       </c>
       <c r="H5">
-        <v>0.01165843959988051</v>
+        <v>0.009668575396211757</v>
       </c>
       <c r="I5">
-        <v>0.01037255241915558</v>
+        <v>0.00766327876758055</v>
       </c>
       <c r="J5">
-        <v>0.4963178734325311</v>
+        <v>0.4761527149878191</v>
       </c>
       <c r="K5">
-        <v>0.552140619499383</v>
+        <v>0.4887936001214577</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2295573703698786</v>
       </c>
       <c r="M5">
-        <v>0.7218364980635243</v>
+        <v>0.1443538719599484</v>
       </c>
       <c r="N5">
-        <v>0.1799683053251258</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1907207825358377</v>
+        <v>0.7182035241725231</v>
       </c>
       <c r="P5">
-        <v>1.157095607569694</v>
+        <v>0.1891207553105545</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1838177788210551</v>
+      </c>
+      <c r="R5">
+        <v>1.087785992014354</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7744123793115421</v>
+        <v>0.7262873597260295</v>
       </c>
       <c r="C6">
-        <v>0.1279323973362096</v>
+        <v>0.1257195707515706</v>
       </c>
       <c r="D6">
-        <v>0.05544138578176572</v>
+        <v>0.05606325004220736</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6961697761850871</v>
+        <v>0.6376228389352008</v>
       </c>
       <c r="G6">
-        <v>0.6328718091703678</v>
+        <v>0.5571269499518365</v>
       </c>
       <c r="H6">
-        <v>0.01178297654581933</v>
+        <v>0.009773149413103768</v>
       </c>
       <c r="I6">
-        <v>0.01061822987904559</v>
+        <v>0.007896605112800437</v>
       </c>
       <c r="J6">
-        <v>0.4953568970109785</v>
+        <v>0.4751947301358257</v>
       </c>
       <c r="K6">
-        <v>0.5507630513455624</v>
+        <v>0.487748477648779</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2293071566518847</v>
       </c>
       <c r="M6">
-        <v>0.716472223109605</v>
+        <v>0.1439447266771818</v>
       </c>
       <c r="N6">
-        <v>0.1789771119745325</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1892979116665252</v>
+        <v>0.7129301666373067</v>
       </c>
       <c r="P6">
-        <v>1.157796244677829</v>
+        <v>0.1881246085058876</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1824695855398808</v>
+      </c>
+      <c r="R6">
+        <v>1.08865908667552</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8119746207913749</v>
+        <v>0.759926114784264</v>
       </c>
       <c r="C7">
-        <v>0.1323393591012589</v>
+        <v>0.1307311545509577</v>
       </c>
       <c r="D7">
-        <v>0.0567327194310252</v>
+        <v>0.05777443135933424</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7076984993717019</v>
+        <v>0.645637082412442</v>
       </c>
       <c r="G7">
-        <v>0.6420013399241071</v>
+        <v>0.5662428384118954</v>
       </c>
       <c r="H7">
-        <v>0.01098780273690655</v>
+        <v>0.009113086095027714</v>
       </c>
       <c r="I7">
-        <v>0.009880249931990548</v>
+        <v>0.007378530656984239</v>
       </c>
       <c r="J7">
-        <v>0.4982522381582442</v>
+        <v>0.472883649206878</v>
       </c>
       <c r="K7">
-        <v>0.5543384257148141</v>
+        <v>0.4889162368412272</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2282353536216952</v>
       </c>
       <c r="M7">
-        <v>0.7523172480518099</v>
+        <v>0.1450673650948495</v>
       </c>
       <c r="N7">
-        <v>0.186113331332777</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1980400982735304</v>
+        <v>0.7470969891146808</v>
       </c>
       <c r="P7">
-        <v>1.148494373287775</v>
+        <v>0.195298862938813</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1906560744133188</v>
+      </c>
+      <c r="R7">
+        <v>1.078576835557984</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9795659041895988</v>
+        <v>0.9107814901024085</v>
       </c>
       <c r="C8">
-        <v>0.1513794141029265</v>
+        <v>0.1531807496241413</v>
       </c>
       <c r="D8">
-        <v>0.06225678463305684</v>
+        <v>0.06494680262120767</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7617219628896521</v>
+        <v>0.6863958451418952</v>
       </c>
       <c r="G8">
-        <v>0.6854000367741975</v>
+        <v>0.6031733803560684</v>
       </c>
       <c r="H8">
-        <v>0.007908121275881891</v>
+        <v>0.006546982325385309</v>
       </c>
       <c r="I8">
-        <v>0.006902552065480627</v>
+        <v>0.005207185542721149</v>
       </c>
       <c r="J8">
-        <v>0.512789598789638</v>
+        <v>0.475256004829447</v>
       </c>
       <c r="K8">
-        <v>0.5722686135330548</v>
+        <v>0.4973402012317223</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2248680893432997</v>
       </c>
       <c r="M8">
-        <v>0.9109338396851854</v>
+        <v>0.1522505578446527</v>
       </c>
       <c r="N8">
-        <v>0.2175005124556577</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.23686345501633</v>
+        <v>0.9003222167175409</v>
       </c>
       <c r="P8">
-        <v>1.109810510736057</v>
+        <v>0.2268479177069196</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2271196910189062</v>
+      </c>
+      <c r="R8">
+        <v>1.037427702233577</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.310992438013784</v>
+        <v>1.209416242296442</v>
       </c>
       <c r="C9">
-        <v>0.188529061780315</v>
+        <v>0.198640394505702</v>
       </c>
       <c r="D9">
-        <v>0.07273336925501894</v>
+        <v>0.07834248945446376</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8759639985401009</v>
+        <v>0.7776774584792108</v>
       </c>
       <c r="G9">
-        <v>0.7783165397511738</v>
+        <v>0.6719459598030539</v>
       </c>
       <c r="H9">
-        <v>0.00357689482372392</v>
+        <v>0.002936487419534339</v>
       </c>
       <c r="I9">
-        <v>0.002834572001395586</v>
+        <v>0.002220747709513304</v>
       </c>
       <c r="J9">
-        <v>0.5458496105293307</v>
+        <v>0.5011373193580511</v>
       </c>
       <c r="K9">
-        <v>0.6122048519466929</v>
+        <v>0.5199589357798402</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2201385688035487</v>
       </c>
       <c r="M9">
-        <v>1.223466897008024</v>
+        <v>0.173121706543462</v>
       </c>
       <c r="N9">
-        <v>0.2789355941659437</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3133895677501499</v>
+        <v>1.205340997925845</v>
       </c>
       <c r="P9">
-        <v>1.04017751062613</v>
+        <v>0.288574583554805</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2990432920269441</v>
+      </c>
+      <c r="R9">
+        <v>0.9643484228508683</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.54251872244194</v>
+        <v>1.414149146578637</v>
       </c>
       <c r="C10">
-        <v>0.2198458603764379</v>
+        <v>0.2346951475261392</v>
       </c>
       <c r="D10">
-        <v>0.08129744778111814</v>
+        <v>0.08987858296807616</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9518286694806903</v>
+        <v>0.830058668688693</v>
       </c>
       <c r="G10">
-        <v>0.8370766002184666</v>
+        <v>0.7329721003185199</v>
       </c>
       <c r="H10">
-        <v>0.00187253340048299</v>
+        <v>0.001572681766833117</v>
       </c>
       <c r="I10">
-        <v>0.001515505184578991</v>
+        <v>0.001434622018992471</v>
       </c>
       <c r="J10">
-        <v>0.5656696713013503</v>
+        <v>0.4862517783103044</v>
       </c>
       <c r="K10">
-        <v>0.6329694435231303</v>
+        <v>0.5254159718866731</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2122193512729318</v>
       </c>
       <c r="M10">
-        <v>1.453251238125034</v>
+        <v>0.1869819769066439</v>
       </c>
       <c r="N10">
-        <v>0.3069409971483594</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3602378287049106</v>
+        <v>1.422683856819361</v>
       </c>
       <c r="P10">
-        <v>0.9849867059069624</v>
+        <v>0.3165804701737756</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3422765607092444</v>
+      </c>
+      <c r="R10">
+        <v>0.9069477256649705</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.557363912794983</v>
+        <v>1.426533011627953</v>
       </c>
       <c r="C11">
-        <v>0.2632007818315998</v>
+        <v>0.2774559995432782</v>
       </c>
       <c r="D11">
-        <v>0.09307197608632833</v>
+        <v>0.1045783071174142</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8957488193385075</v>
+        <v>0.7666891987568079</v>
       </c>
       <c r="G11">
-        <v>0.766822195119218</v>
+        <v>0.7099878217735807</v>
       </c>
       <c r="H11">
-        <v>0.020570576327259</v>
+        <v>0.02031023099041107</v>
       </c>
       <c r="I11">
-        <v>0.001821827462070935</v>
+        <v>0.00194778448413846</v>
       </c>
       <c r="J11">
-        <v>0.5257262898920914</v>
+        <v>0.4001472503975236</v>
       </c>
       <c r="K11">
-        <v>0.5671155959550518</v>
+        <v>0.463377693447157</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1863794231704361</v>
       </c>
       <c r="M11">
-        <v>1.551714036852218</v>
+        <v>0.167469529500373</v>
       </c>
       <c r="N11">
-        <v>0.1897519059091977</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3049522238872555</v>
+        <v>1.506122940411501</v>
       </c>
       <c r="P11">
-        <v>0.9149390896892449</v>
+        <v>0.1972244447273326</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2881168095378399</v>
+      </c>
+      <c r="R11">
+        <v>0.855289404912114</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.524413465037554</v>
+        <v>1.399185246812777</v>
       </c>
       <c r="C12">
-        <v>0.2958302467741589</v>
+        <v>0.3085848542882133</v>
       </c>
       <c r="D12">
-        <v>0.1017049231188381</v>
+        <v>0.1145845377215053</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8363958844854977</v>
+        <v>0.7108788545370359</v>
       </c>
       <c r="G12">
-        <v>0.7005609393952028</v>
+        <v>0.6695559268550397</v>
       </c>
       <c r="H12">
-        <v>0.05949188589205789</v>
+        <v>0.05922427904373961</v>
       </c>
       <c r="I12">
-        <v>0.001795093459029395</v>
+        <v>0.001933850205841026</v>
       </c>
       <c r="J12">
-        <v>0.4903748408266466</v>
+        <v>0.3545198444799809</v>
       </c>
       <c r="K12">
-        <v>0.5129630432039463</v>
+        <v>0.4178465581936628</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1695507055045482</v>
       </c>
       <c r="M12">
-        <v>1.58687721053002</v>
+        <v>0.1506135584551771</v>
       </c>
       <c r="N12">
-        <v>0.1123088218799495</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2532397423229362</v>
+        <v>1.535222485757828</v>
       </c>
       <c r="P12">
-        <v>0.8784460837173889</v>
+        <v>0.1179866493607378</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2383522893592911</v>
+      </c>
+      <c r="R12">
+        <v>0.8356218681403806</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.448920394703777</v>
+        <v>1.337409915047687</v>
       </c>
       <c r="C13">
-        <v>0.322596936390994</v>
+        <v>0.3347963734245241</v>
       </c>
       <c r="D13">
-        <v>0.1085623703113683</v>
+        <v>0.1211228543655665</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7675843208367752</v>
+        <v>0.6566699181864166</v>
       </c>
       <c r="G13">
-        <v>0.6297992826318506</v>
+        <v>0.6034392710231913</v>
       </c>
       <c r="H13">
-        <v>0.1156421894626476</v>
+        <v>0.1153174480481454</v>
       </c>
       <c r="I13">
-        <v>0.001879460652238762</v>
+        <v>0.001961024106298837</v>
       </c>
       <c r="J13">
-        <v>0.4545603450380753</v>
+        <v>0.3373723538295295</v>
       </c>
       <c r="K13">
-        <v>0.4617015128315103</v>
+        <v>0.3802804700669142</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1571943345810212</v>
       </c>
       <c r="M13">
-        <v>1.574222677483419</v>
+        <v>0.1345807206205514</v>
       </c>
       <c r="N13">
-        <v>0.06108966666161564</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2010495437693542</v>
+        <v>1.526301585591909</v>
       </c>
       <c r="P13">
-        <v>0.8626726681609092</v>
+        <v>0.06521792352111433</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1888822820928091</v>
+      </c>
+      <c r="R13">
+        <v>0.8348581193160243</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.376492963612804</v>
+        <v>1.278014672624181</v>
       </c>
       <c r="C14">
-        <v>0.3392079295969808</v>
+        <v>0.3515880345271967</v>
       </c>
       <c r="D14">
-        <v>0.1126531300318092</v>
+        <v>0.1241518513948705</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7150690929021408</v>
+        <v>0.6186847831096713</v>
       </c>
       <c r="G14">
-        <v>0.5782928671420677</v>
+        <v>0.5471964901161499</v>
       </c>
       <c r="H14">
-        <v>0.165340250321151</v>
+        <v>0.1649481320743718</v>
       </c>
       <c r="I14">
-        <v>0.002097721785442985</v>
+        <v>0.002115080719528706</v>
       </c>
       <c r="J14">
-        <v>0.4292632392126592</v>
+        <v>0.3355671833095855</v>
       </c>
       <c r="K14">
-        <v>0.4273301508897482</v>
+        <v>0.3571192002923027</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1501663957533523</v>
       </c>
       <c r="M14">
-        <v>1.543604839096417</v>
+        <v>0.1237910554226715</v>
       </c>
       <c r="N14">
-        <v>0.04093224665377448</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1651547293700375</v>
+        <v>1.502604945693435</v>
       </c>
       <c r="P14">
-        <v>0.8617937481807143</v>
+        <v>0.04416159938644526</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1551112235449388</v>
+      </c>
+      <c r="R14">
+        <v>0.8423817658790078</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349040996887936</v>
+        <v>1.255310227913185</v>
       </c>
       <c r="C15">
-        <v>0.3418646049905192</v>
+        <v>0.3546379347852167</v>
       </c>
       <c r="D15">
-        <v>0.1132441121897401</v>
+        <v>0.1241382474139527</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6995459263568833</v>
+        <v>0.6086490917297027</v>
       </c>
       <c r="G15">
-        <v>0.5639100066630363</v>
+        <v>0.528590120382944</v>
       </c>
       <c r="H15">
-        <v>0.1780060364026497</v>
+        <v>0.1775811107614942</v>
       </c>
       <c r="I15">
-        <v>0.002312581114509271</v>
+        <v>0.00231589572076718</v>
       </c>
       <c r="J15">
-        <v>0.4225737823983309</v>
+        <v>0.3392295103279608</v>
       </c>
       <c r="K15">
-        <v>0.418736855459219</v>
+        <v>0.3521106808711245</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1488949494223828</v>
       </c>
       <c r="M15">
-        <v>1.525778562142506</v>
+        <v>0.1210603637521679</v>
       </c>
       <c r="N15">
-        <v>0.03805638522162358</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1557586488625056</v>
+        <v>1.488314529510546</v>
       </c>
       <c r="P15">
-        <v>0.864658280931053</v>
+        <v>0.04112767094824488</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1463607130184599</v>
+      </c>
+      <c r="R15">
+        <v>0.8466619812517671</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.265121768151886</v>
+        <v>1.184788706670929</v>
       </c>
       <c r="C16">
-        <v>0.3222307544312315</v>
+        <v>0.3374925195159051</v>
       </c>
       <c r="D16">
-        <v>0.1079785621692153</v>
+        <v>0.1160277840682156</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.680036689579147</v>
+        <v>0.6055838756666247</v>
       </c>
       <c r="G16">
-        <v>0.5522096575143109</v>
+        <v>0.4918808773488621</v>
       </c>
       <c r="H16">
-        <v>0.1660563478989445</v>
+        <v>0.1654624918094783</v>
       </c>
       <c r="I16">
-        <v>0.002944828060501337</v>
+        <v>0.002765037399653281</v>
       </c>
       <c r="J16">
-        <v>0.4207129865636858</v>
+        <v>0.3784382735093033</v>
       </c>
       <c r="K16">
-        <v>0.4196250857039985</v>
+        <v>0.360336397918676</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1540454870110324</v>
       </c>
       <c r="M16">
-        <v>1.428763830890972</v>
+        <v>0.1208818981866706</v>
       </c>
       <c r="N16">
-        <v>0.03795138804962495</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1476319874150072</v>
+        <v>1.406547811177404</v>
       </c>
       <c r="P16">
-        <v>0.8886087537701233</v>
+        <v>0.04144974219046738</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1394863843263465</v>
+      </c>
+      <c r="R16">
+        <v>0.8658688811163309</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.238925298409129</v>
+        <v>1.161201382026491</v>
       </c>
       <c r="C17">
-        <v>0.298275933482202</v>
+        <v>0.314364051226093</v>
       </c>
       <c r="D17">
-        <v>0.1017699014872875</v>
+        <v>0.1085942843376344</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6928191603508083</v>
+        <v>0.6220800242468485</v>
       </c>
       <c r="G17">
-        <v>0.5703018957905499</v>
+        <v>0.4963747378450023</v>
       </c>
       <c r="H17">
-        <v>0.1287006826090789</v>
+        <v>0.1280125248778177</v>
       </c>
       <c r="I17">
-        <v>0.00336169715609369</v>
+        <v>0.003074201823049627</v>
       </c>
       <c r="J17">
-        <v>0.4326354187652299</v>
+        <v>0.4069023506004612</v>
       </c>
       <c r="K17">
-        <v>0.438184070429692</v>
+        <v>0.3784893019032367</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1619697125003157</v>
       </c>
       <c r="M17">
-        <v>1.370820412944198</v>
+        <v>0.1259888681270169</v>
       </c>
       <c r="N17">
-        <v>0.0458926626915499</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.159771404713922</v>
+        <v>1.354652839362103</v>
       </c>
       <c r="P17">
-        <v>0.9071407158181088</v>
+        <v>0.05011506971773194</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1514953822442173</v>
+      </c>
+      <c r="R17">
+        <v>0.8780473217879159</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.261377356274721</v>
+        <v>1.17851136722075</v>
       </c>
       <c r="C18">
-        <v>0.2686381315392765</v>
+        <v>0.2848938885364305</v>
       </c>
       <c r="D18">
-        <v>0.09418077642052225</v>
+        <v>0.1005794414083994</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7369367743578294</v>
+        <v>0.6617594991421001</v>
       </c>
       <c r="G18">
-        <v>0.6188422276486278</v>
+        <v>0.5323255652067616</v>
       </c>
       <c r="H18">
-        <v>0.07586671245745435</v>
+        <v>0.07516380099260545</v>
       </c>
       <c r="I18">
-        <v>0.003240096070471488</v>
+        <v>0.00287347213860123</v>
       </c>
       <c r="J18">
-        <v>0.459077854083958</v>
+        <v>0.4372527361094001</v>
       </c>
       <c r="K18">
-        <v>0.4768903804671005</v>
+        <v>0.4108066505938233</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1746176011448313</v>
       </c>
       <c r="M18">
-        <v>1.340033750886448</v>
+        <v>0.1373301507614961</v>
       </c>
       <c r="N18">
-        <v>0.07519606325301353</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.193295058377764</v>
+        <v>1.325442112948338</v>
       </c>
       <c r="P18">
-        <v>0.9278472004252234</v>
+        <v>0.08056683192140213</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1837466675578412</v>
+      </c>
+      <c r="R18">
+        <v>0.8891219261457808</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.316965805561352</v>
+        <v>1.223733896874791</v>
       </c>
       <c r="C19">
-        <v>0.2405500812666048</v>
+        <v>0.2566084444568872</v>
       </c>
       <c r="D19">
-        <v>0.08687006090429605</v>
+        <v>0.09328368672525045</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8008023488945071</v>
+        <v>0.7158759577177705</v>
       </c>
       <c r="G19">
-        <v>0.6868308983185329</v>
+        <v>0.5869310897554243</v>
       </c>
       <c r="H19">
-        <v>0.03010211386129669</v>
+        <v>0.02946613655085883</v>
       </c>
       <c r="I19">
-        <v>0.003228284379536817</v>
+        <v>0.002929748221525585</v>
       </c>
       <c r="J19">
-        <v>0.4943336616474028</v>
+        <v>0.4690303614279117</v>
       </c>
       <c r="K19">
-        <v>0.528949011677895</v>
+        <v>0.4522864966195002</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1901645939079728</v>
       </c>
       <c r="M19">
-        <v>1.332351210573393</v>
+        <v>0.1528815522390694</v>
       </c>
       <c r="N19">
-        <v>0.1400177821583526</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2448865285781707</v>
+        <v>1.316785094998949</v>
       </c>
       <c r="P19">
-        <v>0.9544212475506733</v>
+        <v>0.1469399855459059</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2331559589284105</v>
+      </c>
+      <c r="R19">
+        <v>0.9031374311218325</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.473144018840173</v>
+        <v>1.354573326222493</v>
       </c>
       <c r="C20">
-        <v>0.2136513168701839</v>
+        <v>0.2288502799037104</v>
       </c>
       <c r="D20">
-        <v>0.07960078833484374</v>
+        <v>0.08700343120897713</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9245222342348143</v>
+        <v>0.8142945641324246</v>
       </c>
       <c r="G20">
-        <v>0.813743955544453</v>
+        <v>0.6987432059964078</v>
       </c>
       <c r="H20">
-        <v>0.002249019886755743</v>
+        <v>0.001862248661995025</v>
       </c>
       <c r="I20">
-        <v>0.002588239967826311</v>
+        <v>0.002536818931655915</v>
       </c>
       <c r="J20">
-        <v>0.5564410959969024</v>
+        <v>0.5045550594959849</v>
       </c>
       <c r="K20">
-        <v>0.6212873895182796</v>
+        <v>0.5211523235549507</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2132525283076028</v>
       </c>
       <c r="M20">
-        <v>1.391345010075838</v>
+        <v>0.1820925364793737</v>
       </c>
       <c r="N20">
-        <v>0.2991086676482837</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3464321347301009</v>
+        <v>1.36820463155658</v>
       </c>
       <c r="P20">
-        <v>0.9952337314316537</v>
+        <v>0.3086949713827778</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3297955115262354</v>
+      </c>
+      <c r="R20">
+        <v>0.9205078490060732</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.667572265794064</v>
+        <v>1.514163000050559</v>
       </c>
       <c r="C21">
-        <v>0.2332109250905177</v>
+        <v>0.245286248089414</v>
       </c>
       <c r="D21">
-        <v>0.08482354990422891</v>
+        <v>0.09693354199021087</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.001211730777555</v>
+        <v>0.8452903670198992</v>
       </c>
       <c r="G21">
-        <v>0.8784634549552806</v>
+        <v>0.8229956056127321</v>
       </c>
       <c r="H21">
-        <v>0.0009001926450096231</v>
+        <v>0.0007543569802155314</v>
       </c>
       <c r="I21">
-        <v>0.00186945993440446</v>
+        <v>0.002121205925533332</v>
       </c>
       <c r="J21">
-        <v>0.5816586312199377</v>
+        <v>0.4146242908278879</v>
       </c>
       <c r="K21">
-        <v>0.6522496458457852</v>
+        <v>0.5240071600411511</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2068828920506718</v>
       </c>
       <c r="M21">
-        <v>1.569461335628375</v>
+        <v>0.192807517542164</v>
       </c>
       <c r="N21">
-        <v>0.3474350470487906</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3967239009153332</v>
+        <v>1.514674373299982</v>
       </c>
       <c r="P21">
-        <v>0.9638819036287138</v>
+        <v>0.357688005528658</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3750280676722113</v>
+      </c>
+      <c r="R21">
+        <v>0.8764811636120076</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.793066145270899</v>
+        <v>1.616138392118899</v>
       </c>
       <c r="C22">
-        <v>0.2468935757039077</v>
+        <v>0.256476939880713</v>
       </c>
       <c r="D22">
-        <v>0.08843387115323509</v>
+        <v>0.1039152500729799</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.04970135791902</v>
+        <v>0.862109498356844</v>
       </c>
       <c r="G22">
-        <v>0.918826736476646</v>
+        <v>0.9119489340979072</v>
       </c>
       <c r="H22">
-        <v>0.0004109563701264474</v>
+        <v>0.0003577987454363996</v>
       </c>
       <c r="I22">
-        <v>0.001420452947541229</v>
+        <v>0.001708152444307665</v>
       </c>
       <c r="J22">
-        <v>0.597211055901667</v>
+        <v>0.3586242389846248</v>
       </c>
       <c r="K22">
-        <v>0.6707443098463841</v>
+        <v>0.5234896176506183</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2019986327116676</v>
       </c>
       <c r="M22">
-        <v>1.686558015687126</v>
+        <v>0.1991898265959229</v>
       </c>
       <c r="N22">
-        <v>0.3701439059014575</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4254562744439738</v>
+        <v>1.608938445015866</v>
       </c>
       <c r="P22">
-        <v>0.942441299754389</v>
+        <v>0.3807428456727422</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.400429975682826</v>
+      </c>
+      <c r="R22">
+        <v>0.8473537788681469</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.729227397777265</v>
+        <v>1.566223260723831</v>
       </c>
       <c r="C23">
-        <v>0.2388164200805534</v>
+        <v>0.2504975191981487</v>
       </c>
       <c r="D23">
-        <v>0.08630873377083503</v>
+        <v>0.09960089001217654</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.026295220749432</v>
+        <v>0.8587731723788323</v>
       </c>
       <c r="G23">
-        <v>0.8999690070878046</v>
+        <v>0.8576962519433806</v>
       </c>
       <c r="H23">
-        <v>0.0006439428080344811</v>
+        <v>0.000544828912546258</v>
       </c>
       <c r="I23">
-        <v>0.001317602914214788</v>
+        <v>0.001531642206130002</v>
       </c>
       <c r="J23">
-        <v>0.5902627587916385</v>
+        <v>0.3988147243892115</v>
       </c>
       <c r="K23">
-        <v>0.6630479050090656</v>
+        <v>0.5274039373173736</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2058289403548059</v>
       </c>
       <c r="M23">
-        <v>1.624577641910122</v>
+        <v>0.197256470530764</v>
       </c>
       <c r="N23">
-        <v>0.357912618395801</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4105552874118743</v>
+        <v>1.562162644385381</v>
       </c>
       <c r="P23">
-        <v>0.9552486300057126</v>
+        <v>0.3682835747322599</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3875133646216611</v>
+      </c>
+      <c r="R23">
+        <v>0.864557341600765</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.482533819416432</v>
+        <v>1.362716395821963</v>
       </c>
       <c r="C24">
-        <v>0.2099119142329471</v>
+        <v>0.2247387818310784</v>
       </c>
       <c r="D24">
-        <v>0.07857643332246766</v>
+        <v>0.08588784613538536</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9352868296372918</v>
+        <v>0.8238204185001763</v>
       </c>
       <c r="G24">
-        <v>0.8256352141359713</v>
+        <v>0.7083114427229305</v>
       </c>
       <c r="H24">
-        <v>0.002046100444720533</v>
+        <v>0.001668754460143251</v>
       </c>
       <c r="I24">
-        <v>0.002064222187078357</v>
+        <v>0.00191789684061483</v>
       </c>
       <c r="J24">
-        <v>0.5625727309841153</v>
+        <v>0.5107010179668094</v>
       </c>
       <c r="K24">
-        <v>0.6310024431000301</v>
+        <v>0.5292259280003435</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2163059089658326</v>
       </c>
       <c r="M24">
-        <v>1.389791969306174</v>
+        <v>0.1850890857474212</v>
       </c>
       <c r="N24">
-        <v>0.3118948206183489</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3534859130017622</v>
+        <v>1.366709644990038</v>
       </c>
       <c r="P24">
-        <v>1.002668713275604</v>
+        <v>0.3216844194019188</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3365660274502247</v>
+      </c>
+      <c r="R24">
+        <v>0.9254996457915166</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.216762216422211</v>
+        <v>1.125360830659957</v>
       </c>
       <c r="C25">
-        <v>0.179473493076685</v>
+        <v>0.1879500915767522</v>
       </c>
       <c r="D25">
-        <v>0.07019808480085032</v>
+        <v>0.07486388229656882</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8406208012719816</v>
+        <v>0.7508806252060722</v>
       </c>
       <c r="G25">
-        <v>0.7485224131738164</v>
+        <v>0.6447723866266841</v>
       </c>
       <c r="H25">
-        <v>0.00456677267373673</v>
+        <v>0.003755214854204825</v>
       </c>
       <c r="I25">
-        <v>0.004151746688306091</v>
+        <v>0.00336668526955286</v>
       </c>
       <c r="J25">
-        <v>0.5344827953084064</v>
+        <v>0.4995357458383154</v>
       </c>
       <c r="K25">
-        <v>0.5978434425531489</v>
+        <v>0.5118286076017</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2207190013620774</v>
       </c>
       <c r="M25">
-        <v>1.137956504855794</v>
+        <v>0.1662257931692039</v>
       </c>
       <c r="N25">
-        <v>0.2624537824799376</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2920464802964489</v>
+        <v>1.123573359362041</v>
       </c>
       <c r="P25">
-        <v>1.056263898312171</v>
+        <v>0.2719979654905558</v>
       </c>
       <c r="Q25">
+        <v>0.279119923624819</v>
+      </c>
+      <c r="R25">
+        <v>0.9826794969558978</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
